--- a/user-data/employment-by-sector/employment-by-sector.xlsx
+++ b/user-data/employment-by-sector/employment-by-sector.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
   <si>
     <t>id</t>
   </si>
@@ -1326,9 +1326,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1711,32 +1708,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13">
@@ -1752,11 +1749,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/employment-by-sector/employment-by-sector.xlsx
+++ b/user-data/employment-by-sector/employment-by-sector.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
   <si>
     <t>id</t>
   </si>
@@ -1338,7 +1338,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1751,6 +1754,11 @@
         <v>443</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/employment-by-sector/employment-by-sector.xlsx
+++ b/user-data/employment-by-sector/employment-by-sector.xlsx
@@ -81,7 +81,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -189,7 +189,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -226,12 +226,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -312,6 +306,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -327,7 +327,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -1005,7 +1005,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1023,7 +1023,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1197,7 +1197,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1221,7 +1221,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1242,16 +1242,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1347,7 +1347,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -11650,12 +11650,24 @@
       <c r="C436" t="n">
         <v>2000</v>
       </c>
-      <c r="D436"/>
-      <c r="E436"/>
-      <c r="F436"/>
-      <c r="G436"/>
-      <c r="H436"/>
-      <c r="I436"/>
+      <c r="D436" t="n">
+        <v>73.69999695</v>
+      </c>
+      <c r="E436" t="n">
+        <v>8.399999619</v>
+      </c>
+      <c r="F436" t="n">
+        <v>17.89999962</v>
+      </c>
+      <c r="G436" t="n">
+        <v>73.69999695</v>
+      </c>
+      <c r="H436" t="n">
+        <v>8.399999619</v>
+      </c>
+      <c r="I436" t="n">
+        <v>17.89999962</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
@@ -11667,12 +11679,24 @@
       <c r="C437" t="n">
         <v>2001</v>
       </c>
-      <c r="D437"/>
-      <c r="E437"/>
-      <c r="F437"/>
-      <c r="G437"/>
-      <c r="H437"/>
-      <c r="I437"/>
+      <c r="D437" t="n">
+        <v>70.19999695</v>
+      </c>
+      <c r="E437" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F437" t="n">
+        <v>19.29999924</v>
+      </c>
+      <c r="G437" t="n">
+        <v>70.19999695</v>
+      </c>
+      <c r="H437" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I437" t="n">
+        <v>19.29999924</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
@@ -11687,9 +11711,15 @@
       <c r="D438"/>
       <c r="E438"/>
       <c r="F438"/>
-      <c r="G438"/>
-      <c r="H438"/>
-      <c r="I438"/>
+      <c r="G438" t="n">
+        <v>70.4857112357</v>
+      </c>
+      <c r="H438" t="n">
+        <v>10.228571483</v>
+      </c>
+      <c r="I438" t="n">
+        <v>19.2857137429</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
@@ -11704,9 +11734,15 @@
       <c r="D439"/>
       <c r="E439"/>
       <c r="F439"/>
-      <c r="G439"/>
-      <c r="H439"/>
-      <c r="I439"/>
+      <c r="G439" t="n">
+        <v>70.7714255214</v>
+      </c>
+      <c r="H439" t="n">
+        <v>9.957142966</v>
+      </c>
+      <c r="I439" t="n">
+        <v>19.2714282457</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
@@ -11721,9 +11757,15 @@
       <c r="D440"/>
       <c r="E440"/>
       <c r="F440"/>
-      <c r="G440"/>
-      <c r="H440"/>
-      <c r="I440"/>
+      <c r="G440" t="n">
+        <v>71.0571398071</v>
+      </c>
+      <c r="H440" t="n">
+        <v>9.685714449</v>
+      </c>
+      <c r="I440" t="n">
+        <v>19.2571427486</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
@@ -11738,9 +11780,15 @@
       <c r="D441"/>
       <c r="E441"/>
       <c r="F441"/>
-      <c r="G441"/>
-      <c r="H441"/>
-      <c r="I441"/>
+      <c r="G441" t="n">
+        <v>71.3428540929</v>
+      </c>
+      <c r="H441" t="n">
+        <v>9.414285932</v>
+      </c>
+      <c r="I441" t="n">
+        <v>19.2428572514</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
@@ -11755,9 +11803,15 @@
       <c r="D442"/>
       <c r="E442"/>
       <c r="F442"/>
-      <c r="G442"/>
-      <c r="H442"/>
-      <c r="I442"/>
+      <c r="G442" t="n">
+        <v>71.6285683786</v>
+      </c>
+      <c r="H442" t="n">
+        <v>9.142857415</v>
+      </c>
+      <c r="I442" t="n">
+        <v>19.2285717543</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
@@ -11772,9 +11826,15 @@
       <c r="D443"/>
       <c r="E443"/>
       <c r="F443"/>
-      <c r="G443"/>
-      <c r="H443"/>
-      <c r="I443"/>
+      <c r="G443" t="n">
+        <v>71.9142826643</v>
+      </c>
+      <c r="H443" t="n">
+        <v>8.871428898</v>
+      </c>
+      <c r="I443" t="n">
+        <v>19.2142862571</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
@@ -11786,12 +11846,24 @@
       <c r="C444" t="n">
         <v>2008</v>
       </c>
-      <c r="D444"/>
-      <c r="E444"/>
-      <c r="F444"/>
-      <c r="G444"/>
-      <c r="H444"/>
-      <c r="I444"/>
+      <c r="D444" t="n">
+        <v>72.19999695</v>
+      </c>
+      <c r="E444" t="n">
+        <v>8.600000381</v>
+      </c>
+      <c r="F444" t="n">
+        <v>19.20000076</v>
+      </c>
+      <c r="G444" t="n">
+        <v>72.19999695</v>
+      </c>
+      <c r="H444" t="n">
+        <v>8.600000381</v>
+      </c>
+      <c r="I444" t="n">
+        <v>19.20000076</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
@@ -11803,12 +11875,24 @@
       <c r="C445" t="n">
         <v>2009</v>
       </c>
-      <c r="D445"/>
-      <c r="E445"/>
-      <c r="F445"/>
-      <c r="G445"/>
-      <c r="H445"/>
-      <c r="I445"/>
+      <c r="D445" t="n">
+        <v>57.59999847</v>
+      </c>
+      <c r="E445" t="n">
+        <v>15.89999962</v>
+      </c>
+      <c r="F445" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G445" t="n">
+        <v>57.59999847</v>
+      </c>
+      <c r="H445" t="n">
+        <v>15.89999962</v>
+      </c>
+      <c r="I445" t="n">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
@@ -11820,12 +11904,24 @@
       <c r="C446" t="n">
         <v>2010</v>
       </c>
-      <c r="D446"/>
-      <c r="E446"/>
-      <c r="F446"/>
-      <c r="G446"/>
-      <c r="H446"/>
-      <c r="I446"/>
+      <c r="D446" t="n">
+        <v>54.20000076</v>
+      </c>
+      <c r="E446" t="n">
+        <v>16.20000076</v>
+      </c>
+      <c r="F446" t="n">
+        <v>29.60000038</v>
+      </c>
+      <c r="G446" t="n">
+        <v>54.20000076</v>
+      </c>
+      <c r="H446" t="n">
+        <v>16.20000076</v>
+      </c>
+      <c r="I446" t="n">
+        <v>29.60000038</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
@@ -11837,12 +11933,24 @@
       <c r="C447" t="n">
         <v>2011</v>
       </c>
-      <c r="D447"/>
-      <c r="E447"/>
-      <c r="F447"/>
-      <c r="G447"/>
-      <c r="H447"/>
-      <c r="I447"/>
+      <c r="D447" t="n">
+        <v>55.79999924</v>
+      </c>
+      <c r="E447" t="n">
+        <v>16.89999962</v>
+      </c>
+      <c r="F447" t="n">
+        <v>27.29999924</v>
+      </c>
+      <c r="G447" t="n">
+        <v>55.79999924</v>
+      </c>
+      <c r="H447" t="n">
+        <v>16.89999962</v>
+      </c>
+      <c r="I447" t="n">
+        <v>27.29999924</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
@@ -11854,12 +11962,24 @@
       <c r="C448" t="n">
         <v>2012</v>
       </c>
-      <c r="D448"/>
-      <c r="E448"/>
-      <c r="F448"/>
-      <c r="G448"/>
-      <c r="H448"/>
-      <c r="I448"/>
+      <c r="D448" t="n">
+        <v>51</v>
+      </c>
+      <c r="E448" t="n">
+        <v>18.60000038</v>
+      </c>
+      <c r="F448" t="n">
+        <v>30.39999962</v>
+      </c>
+      <c r="G448" t="n">
+        <v>51</v>
+      </c>
+      <c r="H448" t="n">
+        <v>18.60000038</v>
+      </c>
+      <c r="I448" t="n">
+        <v>30.39999962</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
@@ -11888,24 +12008,12 @@
       <c r="C450" t="n">
         <v>2000</v>
       </c>
-      <c r="D450" t="n">
-        <v>73.69999695</v>
-      </c>
-      <c r="E450" t="n">
-        <v>8.399999619</v>
-      </c>
-      <c r="F450" t="n">
-        <v>17.89999962</v>
-      </c>
-      <c r="G450" t="n">
-        <v>73.69999695</v>
-      </c>
-      <c r="H450" t="n">
-        <v>8.399999619</v>
-      </c>
-      <c r="I450" t="n">
-        <v>17.89999962</v>
-      </c>
+      <c r="D450"/>
+      <c r="E450"/>
+      <c r="F450"/>
+      <c r="G450"/>
+      <c r="H450"/>
+      <c r="I450"/>
     </row>
     <row r="451">
       <c r="A451" t="s">
@@ -11918,22 +12026,22 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>70.19999695</v>
+        <v>61.29999924</v>
       </c>
       <c r="E451" t="n">
-        <v>10.5</v>
+        <v>9.100000381</v>
       </c>
       <c r="F451" t="n">
-        <v>19.29999924</v>
+        <v>22.60000038</v>
       </c>
       <c r="G451" t="n">
-        <v>70.19999695</v>
+        <v>61.29999924</v>
       </c>
       <c r="H451" t="n">
-        <v>10.5</v>
+        <v>9.100000381</v>
       </c>
       <c r="I451" t="n">
-        <v>19.29999924</v>
+        <v>22.60000038</v>
       </c>
     </row>
     <row r="452">
@@ -11950,13 +12058,13 @@
       <c r="E452"/>
       <c r="F452"/>
       <c r="G452" t="n">
-        <v>70.4857112357</v>
+        <v>59.89999962</v>
       </c>
       <c r="H452" t="n">
-        <v>10.228571483</v>
+        <v>10.3500003808</v>
       </c>
       <c r="I452" t="n">
-        <v>19.2857137429</v>
+        <v>24.500000475</v>
       </c>
     </row>
     <row r="453">
@@ -11973,13 +12081,13 @@
       <c r="E453"/>
       <c r="F453"/>
       <c r="G453" t="n">
-        <v>70.7714255214</v>
+        <v>58.5</v>
       </c>
       <c r="H453" t="n">
-        <v>9.957142966</v>
+        <v>11.6000003805</v>
       </c>
       <c r="I453" t="n">
-        <v>19.2714282457</v>
+        <v>26.40000057</v>
       </c>
     </row>
     <row r="454">
@@ -11996,13 +12104,13 @@
       <c r="E454"/>
       <c r="F454"/>
       <c r="G454" t="n">
-        <v>71.0571398071</v>
+        <v>57.10000038</v>
       </c>
       <c r="H454" t="n">
-        <v>9.685714449</v>
+        <v>12.8500003803</v>
       </c>
       <c r="I454" t="n">
-        <v>19.2571427486</v>
+        <v>28.300000665</v>
       </c>
     </row>
     <row r="455">
@@ -12015,17 +12123,23 @@
       <c r="C455" t="n">
         <v>2005</v>
       </c>
-      <c r="D455"/>
-      <c r="E455"/>
-      <c r="F455"/>
+      <c r="D455" t="n">
+        <v>55.70000076</v>
+      </c>
+      <c r="E455" t="n">
+        <v>14.10000038</v>
+      </c>
+      <c r="F455" t="n">
+        <v>30.20000076</v>
+      </c>
       <c r="G455" t="n">
-        <v>71.3428540929</v>
+        <v>55.70000076</v>
       </c>
       <c r="H455" t="n">
-        <v>9.414285932</v>
+        <v>14.10000038</v>
       </c>
       <c r="I455" t="n">
-        <v>19.2428572514</v>
+        <v>30.20000076</v>
       </c>
     </row>
     <row r="456">
@@ -12042,13 +12156,13 @@
       <c r="E456"/>
       <c r="F456"/>
       <c r="G456" t="n">
-        <v>71.6285683786</v>
+        <v>55.220000456</v>
       </c>
       <c r="H456" t="n">
-        <v>9.142857415</v>
+        <v>13.80000038</v>
       </c>
       <c r="I456" t="n">
-        <v>19.2285717543</v>
+        <v>30.980000302</v>
       </c>
     </row>
     <row r="457">
@@ -12065,13 +12179,13 @@
       <c r="E457"/>
       <c r="F457"/>
       <c r="G457" t="n">
-        <v>71.9142826643</v>
+        <v>54.740000152</v>
       </c>
       <c r="H457" t="n">
-        <v>8.871428898</v>
+        <v>13.50000038</v>
       </c>
       <c r="I457" t="n">
-        <v>19.2142862571</v>
+        <v>31.759999844</v>
       </c>
     </row>
     <row r="458">
@@ -12084,23 +12198,17 @@
       <c r="C458" t="n">
         <v>2008</v>
       </c>
-      <c r="D458" t="n">
-        <v>72.19999695</v>
-      </c>
-      <c r="E458" t="n">
-        <v>8.600000381</v>
-      </c>
-      <c r="F458" t="n">
-        <v>19.20000076</v>
-      </c>
+      <c r="D458"/>
+      <c r="E458"/>
+      <c r="F458"/>
       <c r="G458" t="n">
-        <v>72.19999695</v>
+        <v>54.259999848</v>
       </c>
       <c r="H458" t="n">
-        <v>8.600000381</v>
+        <v>13.20000038</v>
       </c>
       <c r="I458" t="n">
-        <v>19.20000076</v>
+        <v>32.539999386</v>
       </c>
     </row>
     <row r="459">
@@ -12113,23 +12221,17 @@
       <c r="C459" t="n">
         <v>2009</v>
       </c>
-      <c r="D459" t="n">
-        <v>57.59999847</v>
-      </c>
-      <c r="E459" t="n">
-        <v>15.89999962</v>
-      </c>
-      <c r="F459" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="D459"/>
+      <c r="E459"/>
+      <c r="F459"/>
       <c r="G459" t="n">
-        <v>57.59999847</v>
+        <v>53.779999544</v>
       </c>
       <c r="H459" t="n">
-        <v>15.89999962</v>
+        <v>12.90000038</v>
       </c>
       <c r="I459" t="n">
-        <v>26.5</v>
+        <v>33.319998928</v>
       </c>
     </row>
     <row r="460">
@@ -12143,22 +12245,22 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>54.20000076</v>
+        <v>53.29999924</v>
       </c>
       <c r="E460" t="n">
-        <v>16.20000076</v>
+        <v>12.60000038</v>
       </c>
       <c r="F460" t="n">
-        <v>29.60000038</v>
+        <v>34.09999847</v>
       </c>
       <c r="G460" t="n">
-        <v>54.20000076</v>
+        <v>53.29999924</v>
       </c>
       <c r="H460" t="n">
-        <v>16.20000076</v>
+        <v>12.60000038</v>
       </c>
       <c r="I460" t="n">
-        <v>29.60000038</v>
+        <v>34.09999847</v>
       </c>
     </row>
     <row r="461">
@@ -12171,24 +12273,12 @@
       <c r="C461" t="n">
         <v>2011</v>
       </c>
-      <c r="D461" t="n">
-        <v>55.79999924</v>
-      </c>
-      <c r="E461" t="n">
-        <v>16.89999962</v>
-      </c>
-      <c r="F461" t="n">
-        <v>27.29999924</v>
-      </c>
-      <c r="G461" t="n">
-        <v>55.79999924</v>
-      </c>
-      <c r="H461" t="n">
-        <v>16.89999962</v>
-      </c>
-      <c r="I461" t="n">
-        <v>27.29999924</v>
-      </c>
+      <c r="D461"/>
+      <c r="E461"/>
+      <c r="F461"/>
+      <c r="G461"/>
+      <c r="H461"/>
+      <c r="I461"/>
     </row>
     <row r="462">
       <c r="A462" t="s">
@@ -12200,24 +12290,12 @@
       <c r="C462" t="n">
         <v>2012</v>
       </c>
-      <c r="D462" t="n">
-        <v>51</v>
-      </c>
-      <c r="E462" t="n">
-        <v>18.60000038</v>
-      </c>
-      <c r="F462" t="n">
-        <v>30.39999962</v>
-      </c>
-      <c r="G462" t="n">
-        <v>51</v>
-      </c>
-      <c r="H462" t="n">
-        <v>18.60000038</v>
-      </c>
-      <c r="I462" t="n">
-        <v>30.39999962</v>
-      </c>
+      <c r="D462"/>
+      <c r="E462"/>
+      <c r="F462"/>
+      <c r="G462"/>
+      <c r="H462"/>
+      <c r="I462"/>
     </row>
     <row r="463">
       <c r="A463" t="s">
@@ -12246,12 +12324,24 @@
       <c r="C464" t="n">
         <v>2000</v>
       </c>
-      <c r="D464"/>
-      <c r="E464"/>
-      <c r="F464"/>
-      <c r="G464"/>
-      <c r="H464"/>
-      <c r="I464"/>
+      <c r="D464" t="n">
+        <v>3.299999952</v>
+      </c>
+      <c r="E464" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F464" t="n">
+        <v>74.19999695</v>
+      </c>
+      <c r="G464" t="n">
+        <v>3.299999952</v>
+      </c>
+      <c r="H464" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I464" t="n">
+        <v>74.19999695</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
@@ -12264,22 +12354,22 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>61.29999924</v>
+        <v>2.799999952</v>
       </c>
       <c r="E465" t="n">
-        <v>9.100000381</v>
+        <v>22.39999962</v>
       </c>
       <c r="F465" t="n">
-        <v>22.60000038</v>
+        <v>74.69999695</v>
       </c>
       <c r="G465" t="n">
-        <v>61.29999924</v>
+        <v>2.799999952</v>
       </c>
       <c r="H465" t="n">
-        <v>9.100000381</v>
+        <v>22.39999962</v>
       </c>
       <c r="I465" t="n">
-        <v>22.60000038</v>
+        <v>74.69999695</v>
       </c>
     </row>
     <row r="466">
@@ -12292,17 +12382,23 @@
       <c r="C466" t="n">
         <v>2002</v>
       </c>
-      <c r="D466"/>
-      <c r="E466"/>
-      <c r="F466"/>
+      <c r="D466" t="n">
+        <v>2.799999952</v>
+      </c>
+      <c r="E466" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F466" t="n">
+        <v>74.69999695</v>
+      </c>
       <c r="G466" t="n">
-        <v>59.89999962</v>
+        <v>2.799999952</v>
       </c>
       <c r="H466" t="n">
-        <v>10.3500003808</v>
+        <v>22.5</v>
       </c>
       <c r="I466" t="n">
-        <v>24.500000475</v>
+        <v>74.69999695</v>
       </c>
     </row>
     <row r="467">
@@ -12315,17 +12411,23 @@
       <c r="C467" t="n">
         <v>2003</v>
       </c>
-      <c r="D467"/>
-      <c r="E467"/>
-      <c r="F467"/>
+      <c r="D467" t="n">
+        <v>2.799999952</v>
+      </c>
+      <c r="E467" t="n">
+        <v>22.20000076</v>
+      </c>
+      <c r="F467" t="n">
+        <v>75</v>
+      </c>
       <c r="G467" t="n">
-        <v>58.5</v>
+        <v>2.799999952</v>
       </c>
       <c r="H467" t="n">
-        <v>11.6000003805</v>
+        <v>22.20000076</v>
       </c>
       <c r="I467" t="n">
-        <v>26.40000057</v>
+        <v>75</v>
       </c>
     </row>
     <row r="468">
@@ -12338,17 +12440,23 @@
       <c r="C468" t="n">
         <v>2004</v>
       </c>
-      <c r="D468"/>
-      <c r="E468"/>
-      <c r="F468"/>
+      <c r="D468" t="n">
+        <v>2.700000048</v>
+      </c>
+      <c r="E468" t="n">
+        <v>22.29999924</v>
+      </c>
+      <c r="F468" t="n">
+        <v>75</v>
+      </c>
       <c r="G468" t="n">
-        <v>57.10000038</v>
+        <v>2.700000048</v>
       </c>
       <c r="H468" t="n">
-        <v>12.8500003803</v>
+        <v>22.29999924</v>
       </c>
       <c r="I468" t="n">
-        <v>28.300000665</v>
+        <v>75</v>
       </c>
     </row>
     <row r="469">
@@ -12362,22 +12470,22 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>55.70000076</v>
+        <v>2.700000048</v>
       </c>
       <c r="E469" t="n">
-        <v>14.10000038</v>
+        <v>22</v>
       </c>
       <c r="F469" t="n">
-        <v>30.20000076</v>
+        <v>75.30000305</v>
       </c>
       <c r="G469" t="n">
-        <v>55.70000076</v>
+        <v>2.700000048</v>
       </c>
       <c r="H469" t="n">
-        <v>14.10000038</v>
+        <v>22</v>
       </c>
       <c r="I469" t="n">
-        <v>30.20000076</v>
+        <v>75.30000305</v>
       </c>
     </row>
     <row r="470">
@@ -12390,17 +12498,23 @@
       <c r="C470" t="n">
         <v>2006</v>
       </c>
-      <c r="D470"/>
-      <c r="E470"/>
-      <c r="F470"/>
+      <c r="D470" t="n">
+        <v>2.599999905</v>
+      </c>
+      <c r="E470" t="n">
+        <v>22</v>
+      </c>
+      <c r="F470" t="n">
+        <v>75.69999695</v>
+      </c>
       <c r="G470" t="n">
-        <v>55.220000456</v>
+        <v>2.599999905</v>
       </c>
       <c r="H470" t="n">
-        <v>13.80000038</v>
+        <v>22</v>
       </c>
       <c r="I470" t="n">
-        <v>30.980000302</v>
+        <v>75.69999695</v>
       </c>
     </row>
     <row r="471">
@@ -12413,17 +12527,23 @@
       <c r="C471" t="n">
         <v>2007</v>
       </c>
-      <c r="D471"/>
-      <c r="E471"/>
-      <c r="F471"/>
+      <c r="D471" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E471" t="n">
+        <v>21.60000038</v>
+      </c>
+      <c r="F471" t="n">
+        <v>76.30000305</v>
+      </c>
       <c r="G471" t="n">
-        <v>54.740000152</v>
+        <v>2.5</v>
       </c>
       <c r="H471" t="n">
-        <v>13.50000038</v>
+        <v>21.60000038</v>
       </c>
       <c r="I471" t="n">
-        <v>31.759999844</v>
+        <v>76.30000305</v>
       </c>
     </row>
     <row r="472">
@@ -12436,17 +12556,23 @@
       <c r="C472" t="n">
         <v>2008</v>
       </c>
-      <c r="D472"/>
-      <c r="E472"/>
-      <c r="F472"/>
+      <c r="D472" t="n">
+        <v>2.400000095</v>
+      </c>
+      <c r="E472" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="F472" t="n">
+        <v>76.5</v>
+      </c>
       <c r="G472" t="n">
-        <v>54.259999848</v>
+        <v>2.400000095</v>
       </c>
       <c r="H472" t="n">
-        <v>13.20000038</v>
+        <v>21.5</v>
       </c>
       <c r="I472" t="n">
-        <v>32.539999386</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="473">
@@ -12462,15 +12588,9 @@
       <c r="D473"/>
       <c r="E473"/>
       <c r="F473"/>
-      <c r="G473" t="n">
-        <v>53.779999544</v>
-      </c>
-      <c r="H473" t="n">
-        <v>12.90000038</v>
-      </c>
-      <c r="I473" t="n">
-        <v>33.319998928</v>
-      </c>
+      <c r="G473"/>
+      <c r="H473"/>
+      <c r="I473"/>
     </row>
     <row r="474">
       <c r="A474" t="s">
@@ -12482,24 +12602,12 @@
       <c r="C474" t="n">
         <v>2010</v>
       </c>
-      <c r="D474" t="n">
-        <v>53.29999924</v>
-      </c>
-      <c r="E474" t="n">
-        <v>12.60000038</v>
-      </c>
-      <c r="F474" t="n">
-        <v>34.09999847</v>
-      </c>
-      <c r="G474" t="n">
-        <v>53.29999924</v>
-      </c>
-      <c r="H474" t="n">
-        <v>12.60000038</v>
-      </c>
-      <c r="I474" t="n">
-        <v>34.09999847</v>
-      </c>
+      <c r="D474"/>
+      <c r="E474"/>
+      <c r="F474"/>
+      <c r="G474"/>
+      <c r="H474"/>
+      <c r="I474"/>
     </row>
     <row r="475">
       <c r="A475" t="s">
@@ -12562,24 +12670,12 @@
       <c r="C478" t="n">
         <v>2000</v>
       </c>
-      <c r="D478" t="n">
-        <v>3.299999952</v>
-      </c>
-      <c r="E478" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F478" t="n">
-        <v>74.19999695</v>
-      </c>
-      <c r="G478" t="n">
-        <v>3.299999952</v>
-      </c>
-      <c r="H478" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="I478" t="n">
-        <v>74.19999695</v>
-      </c>
+      <c r="D478"/>
+      <c r="E478"/>
+      <c r="F478"/>
+      <c r="G478"/>
+      <c r="H478"/>
+      <c r="I478"/>
     </row>
     <row r="479">
       <c r="A479" t="s">
@@ -12591,24 +12687,12 @@
       <c r="C479" t="n">
         <v>2001</v>
       </c>
-      <c r="D479" t="n">
-        <v>2.799999952</v>
-      </c>
-      <c r="E479" t="n">
-        <v>22.39999962</v>
-      </c>
-      <c r="F479" t="n">
-        <v>74.69999695</v>
-      </c>
-      <c r="G479" t="n">
-        <v>2.799999952</v>
-      </c>
-      <c r="H479" t="n">
-        <v>22.39999962</v>
-      </c>
-      <c r="I479" t="n">
-        <v>74.69999695</v>
-      </c>
+      <c r="D479"/>
+      <c r="E479"/>
+      <c r="F479"/>
+      <c r="G479"/>
+      <c r="H479"/>
+      <c r="I479"/>
     </row>
     <row r="480">
       <c r="A480" t="s">
@@ -12620,24 +12704,12 @@
       <c r="C480" t="n">
         <v>2002</v>
       </c>
-      <c r="D480" t="n">
-        <v>2.799999952</v>
-      </c>
-      <c r="E480" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F480" t="n">
-        <v>74.69999695</v>
-      </c>
-      <c r="G480" t="n">
-        <v>2.799999952</v>
-      </c>
-      <c r="H480" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="I480" t="n">
-        <v>74.69999695</v>
-      </c>
+      <c r="D480"/>
+      <c r="E480"/>
+      <c r="F480"/>
+      <c r="G480"/>
+      <c r="H480"/>
+      <c r="I480"/>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -12649,24 +12721,12 @@
       <c r="C481" t="n">
         <v>2003</v>
       </c>
-      <c r="D481" t="n">
-        <v>2.799999952</v>
-      </c>
-      <c r="E481" t="n">
-        <v>22.20000076</v>
-      </c>
-      <c r="F481" t="n">
-        <v>75</v>
-      </c>
-      <c r="G481" t="n">
-        <v>2.799999952</v>
-      </c>
-      <c r="H481" t="n">
-        <v>22.20000076</v>
-      </c>
-      <c r="I481" t="n">
-        <v>75</v>
-      </c>
+      <c r="D481"/>
+      <c r="E481"/>
+      <c r="F481"/>
+      <c r="G481"/>
+      <c r="H481"/>
+      <c r="I481"/>
     </row>
     <row r="482">
       <c r="A482" t="s">
@@ -12678,24 +12738,12 @@
       <c r="C482" t="n">
         <v>2004</v>
       </c>
-      <c r="D482" t="n">
-        <v>2.700000048</v>
-      </c>
-      <c r="E482" t="n">
-        <v>22.29999924</v>
-      </c>
-      <c r="F482" t="n">
-        <v>75</v>
-      </c>
-      <c r="G482" t="n">
-        <v>2.700000048</v>
-      </c>
-      <c r="H482" t="n">
-        <v>22.29999924</v>
-      </c>
-      <c r="I482" t="n">
-        <v>75</v>
-      </c>
+      <c r="D482"/>
+      <c r="E482"/>
+      <c r="F482"/>
+      <c r="G482"/>
+      <c r="H482"/>
+      <c r="I482"/>
     </row>
     <row r="483">
       <c r="A483" t="s">
@@ -12707,24 +12755,12 @@
       <c r="C483" t="n">
         <v>2005</v>
       </c>
-      <c r="D483" t="n">
-        <v>2.700000048</v>
-      </c>
-      <c r="E483" t="n">
-        <v>22</v>
-      </c>
-      <c r="F483" t="n">
-        <v>75.30000305</v>
-      </c>
-      <c r="G483" t="n">
-        <v>2.700000048</v>
-      </c>
-      <c r="H483" t="n">
-        <v>22</v>
-      </c>
-      <c r="I483" t="n">
-        <v>75.30000305</v>
-      </c>
+      <c r="D483"/>
+      <c r="E483"/>
+      <c r="F483"/>
+      <c r="G483"/>
+      <c r="H483"/>
+      <c r="I483"/>
     </row>
     <row r="484">
       <c r="A484" t="s">
@@ -12736,24 +12772,12 @@
       <c r="C484" t="n">
         <v>2006</v>
       </c>
-      <c r="D484" t="n">
-        <v>2.599999905</v>
-      </c>
-      <c r="E484" t="n">
-        <v>22</v>
-      </c>
-      <c r="F484" t="n">
-        <v>75.69999695</v>
-      </c>
-      <c r="G484" t="n">
-        <v>2.599999905</v>
-      </c>
-      <c r="H484" t="n">
-        <v>22</v>
-      </c>
-      <c r="I484" t="n">
-        <v>75.69999695</v>
-      </c>
+      <c r="D484"/>
+      <c r="E484"/>
+      <c r="F484"/>
+      <c r="G484"/>
+      <c r="H484"/>
+      <c r="I484"/>
     </row>
     <row r="485">
       <c r="A485" t="s">
@@ -12765,24 +12789,12 @@
       <c r="C485" t="n">
         <v>2007</v>
       </c>
-      <c r="D485" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E485" t="n">
-        <v>21.60000038</v>
-      </c>
-      <c r="F485" t="n">
-        <v>76.30000305</v>
-      </c>
-      <c r="G485" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H485" t="n">
-        <v>21.60000038</v>
-      </c>
-      <c r="I485" t="n">
-        <v>76.30000305</v>
-      </c>
+      <c r="D485"/>
+      <c r="E485"/>
+      <c r="F485"/>
+      <c r="G485"/>
+      <c r="H485"/>
+      <c r="I485"/>
     </row>
     <row r="486">
       <c r="A486" t="s">
@@ -12794,24 +12806,12 @@
       <c r="C486" t="n">
         <v>2008</v>
       </c>
-      <c r="D486" t="n">
-        <v>2.400000095</v>
-      </c>
-      <c r="E486" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F486" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="G486" t="n">
-        <v>2.400000095</v>
-      </c>
-      <c r="H486" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="I486" t="n">
-        <v>76.5</v>
-      </c>
+      <c r="D486"/>
+      <c r="E486"/>
+      <c r="F486"/>
+      <c r="G486"/>
+      <c r="H486"/>
+      <c r="I486"/>
     </row>
     <row r="487">
       <c r="A487" t="s">
@@ -13231,12 +13231,24 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511"/>
-      <c r="E511"/>
-      <c r="F511"/>
-      <c r="G511"/>
-      <c r="H511"/>
-      <c r="I511"/>
+      <c r="D511" t="n">
+        <v>1.700000048</v>
+      </c>
+      <c r="E511" t="n">
+        <v>22.20000076</v>
+      </c>
+      <c r="F511" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="G511" t="n">
+        <v>1.700000048</v>
+      </c>
+      <c r="H511" t="n">
+        <v>22.20000076</v>
+      </c>
+      <c r="I511" t="n">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -13248,12 +13260,24 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512"/>
-      <c r="E512"/>
-      <c r="F512"/>
-      <c r="G512"/>
-      <c r="H512"/>
-      <c r="I512"/>
+      <c r="D512" t="n">
+        <v>2.299999952</v>
+      </c>
+      <c r="E512" t="n">
+        <v>21.29999924</v>
+      </c>
+      <c r="F512" t="n">
+        <v>76.40000153</v>
+      </c>
+      <c r="G512" t="n">
+        <v>2.299999952</v>
+      </c>
+      <c r="H512" t="n">
+        <v>21.29999924</v>
+      </c>
+      <c r="I512" t="n">
+        <v>76.40000153</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -13265,12 +13289,24 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513"/>
-      <c r="E513"/>
-      <c r="F513"/>
-      <c r="G513"/>
-      <c r="H513"/>
-      <c r="I513"/>
+      <c r="D513" t="n">
+        <v>1.799999952</v>
+      </c>
+      <c r="E513" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F513" t="n">
+        <v>76.40000153</v>
+      </c>
+      <c r="G513" t="n">
+        <v>1.799999952</v>
+      </c>
+      <c r="H513" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I513" t="n">
+        <v>76.40000153</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -13282,12 +13318,24 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514"/>
-      <c r="E514"/>
-      <c r="F514"/>
-      <c r="G514"/>
-      <c r="H514"/>
-      <c r="I514"/>
+      <c r="D514" t="n">
+        <v>1.899999976</v>
+      </c>
+      <c r="E514" t="n">
+        <v>19.10000038</v>
+      </c>
+      <c r="F514" t="n">
+        <v>78.09999847</v>
+      </c>
+      <c r="G514" t="n">
+        <v>1.899999976</v>
+      </c>
+      <c r="H514" t="n">
+        <v>19.10000038</v>
+      </c>
+      <c r="I514" t="n">
+        <v>78.09999847</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -13469,24 +13517,12 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525" t="n">
-        <v>1.700000048</v>
-      </c>
-      <c r="E525" t="n">
-        <v>22.20000076</v>
-      </c>
-      <c r="F525" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="G525" t="n">
-        <v>1.700000048</v>
-      </c>
-      <c r="H525" t="n">
-        <v>22.20000076</v>
-      </c>
-      <c r="I525" t="n">
-        <v>75.5</v>
-      </c>
+      <c r="D525"/>
+      <c r="E525"/>
+      <c r="F525"/>
+      <c r="G525"/>
+      <c r="H525"/>
+      <c r="I525"/>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -13498,24 +13534,12 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526" t="n">
-        <v>2.299999952</v>
-      </c>
-      <c r="E526" t="n">
-        <v>21.29999924</v>
-      </c>
-      <c r="F526" t="n">
-        <v>76.40000153</v>
-      </c>
-      <c r="G526" t="n">
-        <v>2.299999952</v>
-      </c>
-      <c r="H526" t="n">
-        <v>21.29999924</v>
-      </c>
-      <c r="I526" t="n">
-        <v>76.40000153</v>
-      </c>
+      <c r="D526"/>
+      <c r="E526"/>
+      <c r="F526"/>
+      <c r="G526"/>
+      <c r="H526"/>
+      <c r="I526"/>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -13527,24 +13551,12 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527" t="n">
-        <v>1.799999952</v>
-      </c>
-      <c r="E527" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F527" t="n">
-        <v>76.40000153</v>
-      </c>
-      <c r="G527" t="n">
-        <v>1.799999952</v>
-      </c>
-      <c r="H527" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="I527" t="n">
-        <v>76.40000153</v>
-      </c>
+      <c r="D527"/>
+      <c r="E527"/>
+      <c r="F527"/>
+      <c r="G527"/>
+      <c r="H527"/>
+      <c r="I527"/>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -13556,24 +13568,12 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528" t="n">
-        <v>1.899999976</v>
-      </c>
-      <c r="E528" t="n">
-        <v>19.10000038</v>
-      </c>
-      <c r="F528" t="n">
-        <v>78.09999847</v>
-      </c>
-      <c r="G528" t="n">
-        <v>1.899999976</v>
-      </c>
-      <c r="H528" t="n">
-        <v>19.10000038</v>
-      </c>
-      <c r="I528" t="n">
-        <v>78.09999847</v>
-      </c>
+      <c r="D528"/>
+      <c r="E528"/>
+      <c r="F528"/>
+      <c r="G528"/>
+      <c r="H528"/>
+      <c r="I528"/>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -13670,12 +13670,24 @@
       <c r="C534" t="n">
         <v>2000</v>
       </c>
-      <c r="D534"/>
-      <c r="E534"/>
-      <c r="F534"/>
-      <c r="G534"/>
-      <c r="H534"/>
-      <c r="I534"/>
+      <c r="D534" t="n">
+        <v>14.39999962</v>
+      </c>
+      <c r="E534" t="n">
+        <v>23.39999962</v>
+      </c>
+      <c r="F534" t="n">
+        <v>62.20000076</v>
+      </c>
+      <c r="G534" t="n">
+        <v>14.39999962</v>
+      </c>
+      <c r="H534" t="n">
+        <v>23.39999962</v>
+      </c>
+      <c r="I534" t="n">
+        <v>62.20000076</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
@@ -13687,12 +13699,24 @@
       <c r="C535" t="n">
         <v>2001</v>
       </c>
-      <c r="D535"/>
-      <c r="E535"/>
-      <c r="F535"/>
-      <c r="G535"/>
-      <c r="H535"/>
-      <c r="I535"/>
+      <c r="D535" t="n">
+        <v>13.60000038</v>
+      </c>
+      <c r="E535" t="n">
+        <v>23.89999962</v>
+      </c>
+      <c r="F535" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="G535" t="n">
+        <v>13.60000038</v>
+      </c>
+      <c r="H535" t="n">
+        <v>23.89999962</v>
+      </c>
+      <c r="I535" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
@@ -13704,12 +13728,24 @@
       <c r="C536" t="n">
         <v>2002</v>
       </c>
-      <c r="D536"/>
-      <c r="E536"/>
-      <c r="F536"/>
-      <c r="G536"/>
-      <c r="H536"/>
-      <c r="I536"/>
+      <c r="D536" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E536" t="n">
+        <v>23.89999962</v>
+      </c>
+      <c r="F536" t="n">
+        <v>62.59999847</v>
+      </c>
+      <c r="G536" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H536" t="n">
+        <v>23.89999962</v>
+      </c>
+      <c r="I536" t="n">
+        <v>62.59999847</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
@@ -13721,12 +13757,24 @@
       <c r="C537" t="n">
         <v>2003</v>
       </c>
-      <c r="D537"/>
-      <c r="E537"/>
-      <c r="F537"/>
-      <c r="G537"/>
-      <c r="H537"/>
-      <c r="I537"/>
+      <c r="D537" t="n">
+        <v>13.60000038</v>
+      </c>
+      <c r="E537" t="n">
+        <v>23.39999962</v>
+      </c>
+      <c r="F537" t="n">
+        <v>63</v>
+      </c>
+      <c r="G537" t="n">
+        <v>13.60000038</v>
+      </c>
+      <c r="H537" t="n">
+        <v>23.39999962</v>
+      </c>
+      <c r="I537" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="s">
@@ -13738,12 +13786,24 @@
       <c r="C538" t="n">
         <v>2004</v>
       </c>
-      <c r="D538"/>
-      <c r="E538"/>
-      <c r="F538"/>
-      <c r="G538"/>
-      <c r="H538"/>
-      <c r="I538"/>
+      <c r="D538" t="n">
+        <v>13.39999962</v>
+      </c>
+      <c r="E538" t="n">
+        <v>23.60000038</v>
+      </c>
+      <c r="F538" t="n">
+        <v>63</v>
+      </c>
+      <c r="G538" t="n">
+        <v>13.39999962</v>
+      </c>
+      <c r="H538" t="n">
+        <v>23.60000038</v>
+      </c>
+      <c r="I538" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
@@ -13755,12 +13815,24 @@
       <c r="C539" t="n">
         <v>2005</v>
       </c>
-      <c r="D539"/>
-      <c r="E539"/>
-      <c r="F539"/>
-      <c r="G539"/>
-      <c r="H539"/>
-      <c r="I539"/>
+      <c r="D539" t="n">
+        <v>13.19999981</v>
+      </c>
+      <c r="E539" t="n">
+        <v>23</v>
+      </c>
+      <c r="F539" t="n">
+        <v>63.90000153</v>
+      </c>
+      <c r="G539" t="n">
+        <v>13.19999981</v>
+      </c>
+      <c r="H539" t="n">
+        <v>23</v>
+      </c>
+      <c r="I539" t="n">
+        <v>63.90000153</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
@@ -13772,12 +13844,24 @@
       <c r="C540" t="n">
         <v>2006</v>
       </c>
-      <c r="D540"/>
-      <c r="E540"/>
-      <c r="F540"/>
-      <c r="G540"/>
-      <c r="H540"/>
-      <c r="I540"/>
+      <c r="D540" t="n">
+        <v>12.80000019</v>
+      </c>
+      <c r="E540" t="n">
+        <v>23.29999924</v>
+      </c>
+      <c r="F540" t="n">
+        <v>63.90000153</v>
+      </c>
+      <c r="G540" t="n">
+        <v>12.80000019</v>
+      </c>
+      <c r="H540" t="n">
+        <v>23.29999924</v>
+      </c>
+      <c r="I540" t="n">
+        <v>63.90000153</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
@@ -13789,12 +13873,24 @@
       <c r="C541" t="n">
         <v>2007</v>
       </c>
-      <c r="D541"/>
-      <c r="E541"/>
-      <c r="F541"/>
-      <c r="G541"/>
-      <c r="H541"/>
-      <c r="I541"/>
+      <c r="D541" t="n">
+        <v>12.30000019</v>
+      </c>
+      <c r="E541" t="n">
+        <v>23.39999962</v>
+      </c>
+      <c r="F541" t="n">
+        <v>64.30000305</v>
+      </c>
+      <c r="G541" t="n">
+        <v>12.30000019</v>
+      </c>
+      <c r="H541" t="n">
+        <v>23.39999962</v>
+      </c>
+      <c r="I541" t="n">
+        <v>64.30000305</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
@@ -13806,12 +13902,24 @@
       <c r="C542" t="n">
         <v>2008</v>
       </c>
-      <c r="D542"/>
-      <c r="E542"/>
-      <c r="F542"/>
-      <c r="G542"/>
-      <c r="H542"/>
-      <c r="I542"/>
+      <c r="D542" t="n">
+        <v>11.69999981</v>
+      </c>
+      <c r="E542" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="F542" t="n">
+        <v>64.69999695</v>
+      </c>
+      <c r="G542" t="n">
+        <v>11.69999981</v>
+      </c>
+      <c r="H542" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I542" t="n">
+        <v>64.69999695</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
@@ -13823,12 +13931,24 @@
       <c r="C543" t="n">
         <v>2009</v>
       </c>
-      <c r="D543"/>
-      <c r="E543"/>
-      <c r="F543"/>
-      <c r="G543"/>
-      <c r="H543"/>
-      <c r="I543"/>
+      <c r="D543" t="n">
+        <v>11.19999981</v>
+      </c>
+      <c r="E543" t="n">
+        <v>23.20000076</v>
+      </c>
+      <c r="F543" t="n">
+        <v>65.59999847</v>
+      </c>
+      <c r="G543" t="n">
+        <v>11.19999981</v>
+      </c>
+      <c r="H543" t="n">
+        <v>23.20000076</v>
+      </c>
+      <c r="I543" t="n">
+        <v>65.59999847</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
@@ -13840,12 +13960,24 @@
       <c r="C544" t="n">
         <v>2010</v>
       </c>
-      <c r="D544"/>
-      <c r="E544"/>
-      <c r="F544"/>
-      <c r="G544"/>
-      <c r="H544"/>
-      <c r="I544"/>
+      <c r="D544" t="n">
+        <v>10.60000038</v>
+      </c>
+      <c r="E544" t="n">
+        <v>23</v>
+      </c>
+      <c r="F544" t="n">
+        <v>66.40000153</v>
+      </c>
+      <c r="G544" t="n">
+        <v>10.60000038</v>
+      </c>
+      <c r="H544" t="n">
+        <v>23</v>
+      </c>
+      <c r="I544" t="n">
+        <v>66.40000153</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
@@ -13857,12 +13989,24 @@
       <c r="C545" t="n">
         <v>2011</v>
       </c>
-      <c r="D545"/>
-      <c r="E545"/>
-      <c r="F545"/>
-      <c r="G545"/>
-      <c r="H545"/>
-      <c r="I545"/>
+      <c r="D545" t="n">
+        <v>10.30000019</v>
+      </c>
+      <c r="E545" t="n">
+        <v>23.39999962</v>
+      </c>
+      <c r="F545" t="n">
+        <v>66.40000153</v>
+      </c>
+      <c r="G545" t="n">
+        <v>10.30000019</v>
+      </c>
+      <c r="H545" t="n">
+        <v>23.39999962</v>
+      </c>
+      <c r="I545" t="n">
+        <v>66.40000153</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
@@ -13909,22 +14053,22 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>14.39999962</v>
+        <v>50</v>
       </c>
       <c r="E548" t="n">
-        <v>23.39999962</v>
+        <v>22.5</v>
       </c>
       <c r="F548" t="n">
-        <v>62.20000076</v>
+        <v>27.5</v>
       </c>
       <c r="G548" t="n">
-        <v>14.39999962</v>
+        <v>50</v>
       </c>
       <c r="H548" t="n">
-        <v>23.39999962</v>
+        <v>22.5</v>
       </c>
       <c r="I548" t="n">
-        <v>62.20000076</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="549">
@@ -13938,22 +14082,22 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>13.60000038</v>
+        <v>50</v>
       </c>
       <c r="E549" t="n">
-        <v>23.89999962</v>
+        <v>22.29999924</v>
       </c>
       <c r="F549" t="n">
-        <v>62.5</v>
+        <v>27.70000076</v>
       </c>
       <c r="G549" t="n">
-        <v>13.60000038</v>
+        <v>50</v>
       </c>
       <c r="H549" t="n">
-        <v>23.89999962</v>
+        <v>22.29999924</v>
       </c>
       <c r="I549" t="n">
-        <v>62.5</v>
+        <v>27.70000076</v>
       </c>
     </row>
     <row r="550">
@@ -13967,22 +14111,22 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>13.5</v>
+        <v>50</v>
       </c>
       <c r="E550" t="n">
-        <v>23.89999962</v>
+        <v>21.39999962</v>
       </c>
       <c r="F550" t="n">
-        <v>62.59999847</v>
+        <v>28.60000038</v>
       </c>
       <c r="G550" t="n">
-        <v>13.5</v>
+        <v>50</v>
       </c>
       <c r="H550" t="n">
-        <v>23.89999962</v>
+        <v>21.39999962</v>
       </c>
       <c r="I550" t="n">
-        <v>62.59999847</v>
+        <v>28.60000038</v>
       </c>
     </row>
     <row r="551">
@@ -13996,22 +14140,22 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>13.60000038</v>
+        <v>49.09999847</v>
       </c>
       <c r="E551" t="n">
-        <v>23.39999962</v>
+        <v>21.60000038</v>
       </c>
       <c r="F551" t="n">
-        <v>63</v>
+        <v>29.29999924</v>
       </c>
       <c r="G551" t="n">
-        <v>13.60000038</v>
+        <v>49.09999847</v>
       </c>
       <c r="H551" t="n">
-        <v>23.39999962</v>
+        <v>21.60000038</v>
       </c>
       <c r="I551" t="n">
-        <v>63</v>
+        <v>29.29999924</v>
       </c>
     </row>
     <row r="552">
@@ -14025,22 +14169,22 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>13.39999962</v>
+        <v>46.90000153</v>
       </c>
       <c r="E552" t="n">
-        <v>23.60000038</v>
+        <v>22.5</v>
       </c>
       <c r="F552" t="n">
-        <v>63</v>
+        <v>30.60000038</v>
       </c>
       <c r="G552" t="n">
-        <v>13.39999962</v>
+        <v>46.90000153</v>
       </c>
       <c r="H552" t="n">
-        <v>23.60000038</v>
+        <v>22.5</v>
       </c>
       <c r="I552" t="n">
-        <v>63</v>
+        <v>30.60000038</v>
       </c>
     </row>
     <row r="553">
@@ -14054,22 +14198,22 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>13.19999981</v>
+        <v>44.79999924</v>
       </c>
       <c r="E553" t="n">
-        <v>23</v>
+        <v>23.79999924</v>
       </c>
       <c r="F553" t="n">
-        <v>63.90000153</v>
+        <v>31.39999962</v>
       </c>
       <c r="G553" t="n">
-        <v>13.19999981</v>
+        <v>44.79999924</v>
       </c>
       <c r="H553" t="n">
-        <v>23</v>
+        <v>23.79999924</v>
       </c>
       <c r="I553" t="n">
-        <v>63.90000153</v>
+        <v>31.39999962</v>
       </c>
     </row>
     <row r="554">
@@ -14083,22 +14227,22 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>12.80000019</v>
+        <v>42.59999847</v>
       </c>
       <c r="E554" t="n">
-        <v>23.29999924</v>
+        <v>25.20000076</v>
       </c>
       <c r="F554" t="n">
-        <v>63.90000153</v>
+        <v>32.20000076</v>
       </c>
       <c r="G554" t="n">
-        <v>12.80000019</v>
+        <v>42.59999847</v>
       </c>
       <c r="H554" t="n">
-        <v>23.29999924</v>
+        <v>25.20000076</v>
       </c>
       <c r="I554" t="n">
-        <v>63.90000153</v>
+        <v>32.20000076</v>
       </c>
     </row>
     <row r="555">
@@ -14112,22 +14256,22 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>12.30000019</v>
+        <v>40.79999924</v>
       </c>
       <c r="E555" t="n">
-        <v>23.39999962</v>
+        <v>26.79999924</v>
       </c>
       <c r="F555" t="n">
-        <v>64.30000305</v>
+        <v>32.40000153</v>
       </c>
       <c r="G555" t="n">
-        <v>12.30000019</v>
+        <v>40.79999924</v>
       </c>
       <c r="H555" t="n">
-        <v>23.39999962</v>
+        <v>26.79999924</v>
       </c>
       <c r="I555" t="n">
-        <v>64.30000305</v>
+        <v>32.40000153</v>
       </c>
     </row>
     <row r="556">
@@ -14141,22 +14285,22 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>11.69999981</v>
+        <v>39.59999847</v>
       </c>
       <c r="E556" t="n">
-        <v>23.5</v>
+        <v>27.20000076</v>
       </c>
       <c r="F556" t="n">
-        <v>64.69999695</v>
+        <v>33.20000076</v>
       </c>
       <c r="G556" t="n">
-        <v>11.69999981</v>
+        <v>39.59999847</v>
       </c>
       <c r="H556" t="n">
-        <v>23.5</v>
+        <v>27.20000076</v>
       </c>
       <c r="I556" t="n">
-        <v>64.69999695</v>
+        <v>33.20000076</v>
       </c>
     </row>
     <row r="557">
@@ -14170,22 +14314,22 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>11.19999981</v>
+        <v>38.09999847</v>
       </c>
       <c r="E557" t="n">
-        <v>23.20000076</v>
+        <v>27.79999924</v>
       </c>
       <c r="F557" t="n">
-        <v>65.59999847</v>
+        <v>34.09999847</v>
       </c>
       <c r="G557" t="n">
-        <v>11.19999981</v>
+        <v>38.09999847</v>
       </c>
       <c r="H557" t="n">
-        <v>23.20000076</v>
+        <v>27.79999924</v>
       </c>
       <c r="I557" t="n">
-        <v>65.59999847</v>
+        <v>34.09999847</v>
       </c>
     </row>
     <row r="558">
@@ -14199,22 +14343,22 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>10.60000038</v>
+        <v>36.70000076</v>
       </c>
       <c r="E558" t="n">
-        <v>23</v>
+        <v>28.70000076</v>
       </c>
       <c r="F558" t="n">
-        <v>66.40000153</v>
+        <v>34.59999847</v>
       </c>
       <c r="G558" t="n">
-        <v>10.60000038</v>
+        <v>36.70000076</v>
       </c>
       <c r="H558" t="n">
-        <v>23</v>
+        <v>28.70000076</v>
       </c>
       <c r="I558" t="n">
-        <v>66.40000153</v>
+        <v>34.59999847</v>
       </c>
     </row>
     <row r="559">
@@ -14228,22 +14372,22 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>10.30000019</v>
+        <v>34.79999924</v>
       </c>
       <c r="E559" t="n">
-        <v>23.39999962</v>
+        <v>29.5</v>
       </c>
       <c r="F559" t="n">
-        <v>66.40000153</v>
+        <v>35.70000076</v>
       </c>
       <c r="G559" t="n">
-        <v>10.30000019</v>
+        <v>34.79999924</v>
       </c>
       <c r="H559" t="n">
-        <v>23.39999962</v>
+        <v>29.5</v>
       </c>
       <c r="I559" t="n">
-        <v>66.40000153</v>
+        <v>35.70000076</v>
       </c>
     </row>
     <row r="560">
@@ -14291,22 +14435,22 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>50</v>
+        <v>1.100000024</v>
       </c>
       <c r="E562" t="n">
-        <v>22.5</v>
+        <v>25.5</v>
       </c>
       <c r="F562" t="n">
-        <v>27.5</v>
+        <v>73.30000305</v>
       </c>
       <c r="G562" t="n">
-        <v>50</v>
+        <v>1.100000024</v>
       </c>
       <c r="H562" t="n">
-        <v>22.5</v>
+        <v>25.5</v>
       </c>
       <c r="I562" t="n">
-        <v>27.5</v>
+        <v>73.30000305</v>
       </c>
     </row>
     <row r="563">
@@ -14320,22 +14464,22 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>50</v>
+        <v>22.20000076</v>
       </c>
       <c r="E563" t="n">
-        <v>22.29999924</v>
+        <v>18.39999962</v>
       </c>
       <c r="F563" t="n">
-        <v>27.70000076</v>
+        <v>59.40000153</v>
       </c>
       <c r="G563" t="n">
-        <v>50</v>
+        <v>22.20000076</v>
       </c>
       <c r="H563" t="n">
-        <v>22.29999924</v>
+        <v>18.39999962</v>
       </c>
       <c r="I563" t="n">
-        <v>27.70000076</v>
+        <v>59.40000153</v>
       </c>
     </row>
     <row r="564">
@@ -14349,22 +14493,22 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>50</v>
+        <v>21.10000038</v>
       </c>
       <c r="E564" t="n">
-        <v>21.39999962</v>
+        <v>18.5</v>
       </c>
       <c r="F564" t="n">
-        <v>28.60000038</v>
+        <v>60.29999924</v>
       </c>
       <c r="G564" t="n">
-        <v>50</v>
+        <v>21.10000038</v>
       </c>
       <c r="H564" t="n">
-        <v>21.39999962</v>
+        <v>18.5</v>
       </c>
       <c r="I564" t="n">
-        <v>28.60000038</v>
+        <v>60.29999924</v>
       </c>
     </row>
     <row r="565">
@@ -14378,22 +14522,22 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>49.09999847</v>
+        <v>21.79999924</v>
       </c>
       <c r="E565" t="n">
-        <v>21.60000038</v>
+        <v>18.20000076</v>
       </c>
       <c r="F565" t="n">
-        <v>29.29999924</v>
+        <v>60</v>
       </c>
       <c r="G565" t="n">
-        <v>49.09999847</v>
+        <v>21.79999924</v>
       </c>
       <c r="H565" t="n">
-        <v>21.60000038</v>
+        <v>18.20000076</v>
       </c>
       <c r="I565" t="n">
-        <v>29.29999924</v>
+        <v>60</v>
       </c>
     </row>
     <row r="566">
@@ -14407,22 +14551,22 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>46.90000153</v>
+        <v>19.5</v>
       </c>
       <c r="E566" t="n">
-        <v>22.5</v>
+        <v>19.60000038</v>
       </c>
       <c r="F566" t="n">
-        <v>30.60000038</v>
+        <v>60.79999924</v>
       </c>
       <c r="G566" t="n">
-        <v>46.90000153</v>
+        <v>19.5</v>
       </c>
       <c r="H566" t="n">
-        <v>22.5</v>
+        <v>19.60000038</v>
       </c>
       <c r="I566" t="n">
-        <v>30.60000038</v>
+        <v>60.79999924</v>
       </c>
     </row>
     <row r="567">
@@ -14436,22 +14580,22 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>44.79999924</v>
+        <v>21.39999962</v>
       </c>
       <c r="E567" t="n">
-        <v>23.79999924</v>
+        <v>20.29999924</v>
       </c>
       <c r="F567" t="n">
-        <v>31.39999962</v>
+        <v>58.29999924</v>
       </c>
       <c r="G567" t="n">
-        <v>44.79999924</v>
+        <v>21.39999962</v>
       </c>
       <c r="H567" t="n">
-        <v>23.79999924</v>
+        <v>20.29999924</v>
       </c>
       <c r="I567" t="n">
-        <v>31.39999962</v>
+        <v>58.29999924</v>
       </c>
     </row>
     <row r="568">
@@ -14465,22 +14609,22 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>42.59999847</v>
+        <v>20.70000076</v>
       </c>
       <c r="E568" t="n">
-        <v>25.20000076</v>
+        <v>20.39999962</v>
       </c>
       <c r="F568" t="n">
-        <v>32.20000076</v>
+        <v>59</v>
       </c>
       <c r="G568" t="n">
-        <v>42.59999847</v>
+        <v>20.70000076</v>
       </c>
       <c r="H568" t="n">
-        <v>25.20000076</v>
+        <v>20.39999962</v>
       </c>
       <c r="I568" t="n">
-        <v>32.20000076</v>
+        <v>59</v>
       </c>
     </row>
     <row r="569">
@@ -14494,22 +14638,22 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>40.79999924</v>
+        <v>19.70000076</v>
       </c>
       <c r="E569" t="n">
-        <v>26.79999924</v>
+        <v>19.20000076</v>
       </c>
       <c r="F569" t="n">
-        <v>32.40000153</v>
+        <v>61.09999847</v>
       </c>
       <c r="G569" t="n">
-        <v>40.79999924</v>
+        <v>19.70000076</v>
       </c>
       <c r="H569" t="n">
-        <v>26.79999924</v>
+        <v>19.20000076</v>
       </c>
       <c r="I569" t="n">
-        <v>32.40000153</v>
+        <v>61.09999847</v>
       </c>
     </row>
     <row r="570">
@@ -14523,22 +14667,22 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>39.59999847</v>
+        <v>17.89999962</v>
       </c>
       <c r="E570" t="n">
-        <v>27.20000076</v>
+        <v>20</v>
       </c>
       <c r="F570" t="n">
-        <v>33.20000076</v>
+        <v>61.90000153</v>
       </c>
       <c r="G570" t="n">
-        <v>39.59999847</v>
+        <v>17.89999962</v>
       </c>
       <c r="H570" t="n">
-        <v>27.20000076</v>
+        <v>20</v>
       </c>
       <c r="I570" t="n">
-        <v>33.20000076</v>
+        <v>61.90000153</v>
       </c>
     </row>
     <row r="571">
@@ -14552,22 +14696,22 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>38.09999847</v>
+        <v>18.10000038</v>
       </c>
       <c r="E571" t="n">
-        <v>27.79999924</v>
+        <v>20.10000038</v>
       </c>
       <c r="F571" t="n">
-        <v>34.09999847</v>
+        <v>61.70000076</v>
       </c>
       <c r="G571" t="n">
-        <v>38.09999847</v>
+        <v>18.10000038</v>
       </c>
       <c r="H571" t="n">
-        <v>27.79999924</v>
+        <v>20.10000038</v>
       </c>
       <c r="I571" t="n">
-        <v>34.09999847</v>
+        <v>61.70000076</v>
       </c>
     </row>
     <row r="572">
@@ -14581,22 +14725,22 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>36.70000076</v>
+        <v>18.39999962</v>
       </c>
       <c r="E572" t="n">
-        <v>28.70000076</v>
+        <v>19.60000038</v>
       </c>
       <c r="F572" t="n">
-        <v>34.59999847</v>
+        <v>62</v>
       </c>
       <c r="G572" t="n">
-        <v>36.70000076</v>
+        <v>18.39999962</v>
       </c>
       <c r="H572" t="n">
-        <v>28.70000076</v>
+        <v>19.60000038</v>
       </c>
       <c r="I572" t="n">
-        <v>34.59999847</v>
+        <v>62</v>
       </c>
     </row>
     <row r="573">
@@ -14610,22 +14754,22 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>34.79999924</v>
+        <v>17.60000038</v>
       </c>
       <c r="E573" t="n">
-        <v>29.5</v>
+        <v>20.70000076</v>
       </c>
       <c r="F573" t="n">
-        <v>35.70000076</v>
+        <v>61.70000076</v>
       </c>
       <c r="G573" t="n">
-        <v>34.79999924</v>
+        <v>17.60000038</v>
       </c>
       <c r="H573" t="n">
-        <v>29.5</v>
+        <v>20.70000076</v>
       </c>
       <c r="I573" t="n">
-        <v>35.70000076</v>
+        <v>61.70000076</v>
       </c>
     </row>
     <row r="574">
@@ -14638,12 +14782,24 @@
       <c r="C574" t="n">
         <v>2012</v>
       </c>
-      <c r="D574"/>
-      <c r="E574"/>
-      <c r="F574"/>
-      <c r="G574"/>
-      <c r="H574"/>
-      <c r="I574"/>
+      <c r="D574" t="n">
+        <v>16.89999962</v>
+      </c>
+      <c r="E574" t="n">
+        <v>20.89999962</v>
+      </c>
+      <c r="F574" t="n">
+        <v>62.20000076</v>
+      </c>
+      <c r="G574" t="n">
+        <v>16.89999962</v>
+      </c>
+      <c r="H574" t="n">
+        <v>20.89999962</v>
+      </c>
+      <c r="I574" t="n">
+        <v>62.20000076</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
@@ -14672,24 +14828,12 @@
       <c r="C576" t="n">
         <v>2000</v>
       </c>
-      <c r="D576" t="n">
-        <v>1.100000024</v>
-      </c>
-      <c r="E576" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F576" t="n">
-        <v>73.30000305</v>
-      </c>
-      <c r="G576" t="n">
-        <v>1.100000024</v>
-      </c>
-      <c r="H576" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="I576" t="n">
-        <v>73.30000305</v>
-      </c>
+      <c r="D576"/>
+      <c r="E576"/>
+      <c r="F576"/>
+      <c r="G576"/>
+      <c r="H576"/>
+      <c r="I576"/>
     </row>
     <row r="577">
       <c r="A577" t="s">
@@ -14701,24 +14845,12 @@
       <c r="C577" t="n">
         <v>2001</v>
       </c>
-      <c r="D577" t="n">
-        <v>22.20000076</v>
-      </c>
-      <c r="E577" t="n">
-        <v>18.39999962</v>
-      </c>
-      <c r="F577" t="n">
-        <v>59.40000153</v>
-      </c>
-      <c r="G577" t="n">
-        <v>22.20000076</v>
-      </c>
-      <c r="H577" t="n">
-        <v>18.39999962</v>
-      </c>
-      <c r="I577" t="n">
-        <v>59.40000153</v>
-      </c>
+      <c r="D577"/>
+      <c r="E577"/>
+      <c r="F577"/>
+      <c r="G577"/>
+      <c r="H577"/>
+      <c r="I577"/>
     </row>
     <row r="578">
       <c r="A578" t="s">
@@ -14730,24 +14862,12 @@
       <c r="C578" t="n">
         <v>2002</v>
       </c>
-      <c r="D578" t="n">
-        <v>21.10000038</v>
-      </c>
-      <c r="E578" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F578" t="n">
-        <v>60.29999924</v>
-      </c>
-      <c r="G578" t="n">
-        <v>21.10000038</v>
-      </c>
-      <c r="H578" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="I578" t="n">
-        <v>60.29999924</v>
-      </c>
+      <c r="D578"/>
+      <c r="E578"/>
+      <c r="F578"/>
+      <c r="G578"/>
+      <c r="H578"/>
+      <c r="I578"/>
     </row>
     <row r="579">
       <c r="A579" t="s">
@@ -14759,24 +14879,12 @@
       <c r="C579" t="n">
         <v>2003</v>
       </c>
-      <c r="D579" t="n">
-        <v>21.79999924</v>
-      </c>
-      <c r="E579" t="n">
-        <v>18.20000076</v>
-      </c>
-      <c r="F579" t="n">
-        <v>60</v>
-      </c>
-      <c r="G579" t="n">
-        <v>21.79999924</v>
-      </c>
-      <c r="H579" t="n">
-        <v>18.20000076</v>
-      </c>
-      <c r="I579" t="n">
-        <v>60</v>
-      </c>
+      <c r="D579"/>
+      <c r="E579"/>
+      <c r="F579"/>
+      <c r="G579"/>
+      <c r="H579"/>
+      <c r="I579"/>
     </row>
     <row r="580">
       <c r="A580" t="s">
@@ -14788,24 +14896,12 @@
       <c r="C580" t="n">
         <v>2004</v>
       </c>
-      <c r="D580" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="E580" t="n">
-        <v>19.60000038</v>
-      </c>
-      <c r="F580" t="n">
-        <v>60.79999924</v>
-      </c>
-      <c r="G580" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="H580" t="n">
-        <v>19.60000038</v>
-      </c>
-      <c r="I580" t="n">
-        <v>60.79999924</v>
-      </c>
+      <c r="D580"/>
+      <c r="E580"/>
+      <c r="F580"/>
+      <c r="G580"/>
+      <c r="H580"/>
+      <c r="I580"/>
     </row>
     <row r="581">
       <c r="A581" t="s">
@@ -14817,24 +14913,12 @@
       <c r="C581" t="n">
         <v>2005</v>
       </c>
-      <c r="D581" t="n">
-        <v>21.39999962</v>
-      </c>
-      <c r="E581" t="n">
-        <v>20.29999924</v>
-      </c>
-      <c r="F581" t="n">
-        <v>58.29999924</v>
-      </c>
-      <c r="G581" t="n">
-        <v>21.39999962</v>
-      </c>
-      <c r="H581" t="n">
-        <v>20.29999924</v>
-      </c>
-      <c r="I581" t="n">
-        <v>58.29999924</v>
-      </c>
+      <c r="D581"/>
+      <c r="E581"/>
+      <c r="F581"/>
+      <c r="G581"/>
+      <c r="H581"/>
+      <c r="I581"/>
     </row>
     <row r="582">
       <c r="A582" t="s">
@@ -14846,24 +14930,12 @@
       <c r="C582" t="n">
         <v>2006</v>
       </c>
-      <c r="D582" t="n">
-        <v>20.70000076</v>
-      </c>
-      <c r="E582" t="n">
-        <v>20.39999962</v>
-      </c>
-      <c r="F582" t="n">
-        <v>59</v>
-      </c>
-      <c r="G582" t="n">
-        <v>20.70000076</v>
-      </c>
-      <c r="H582" t="n">
-        <v>20.39999962</v>
-      </c>
-      <c r="I582" t="n">
-        <v>59</v>
-      </c>
+      <c r="D582"/>
+      <c r="E582"/>
+      <c r="F582"/>
+      <c r="G582"/>
+      <c r="H582"/>
+      <c r="I582"/>
     </row>
     <row r="583">
       <c r="A583" t="s">
@@ -14875,24 +14947,12 @@
       <c r="C583" t="n">
         <v>2007</v>
       </c>
-      <c r="D583" t="n">
-        <v>19.70000076</v>
-      </c>
-      <c r="E583" t="n">
-        <v>19.20000076</v>
-      </c>
-      <c r="F583" t="n">
-        <v>61.09999847</v>
-      </c>
-      <c r="G583" t="n">
-        <v>19.70000076</v>
-      </c>
-      <c r="H583" t="n">
-        <v>19.20000076</v>
-      </c>
-      <c r="I583" t="n">
-        <v>61.09999847</v>
-      </c>
+      <c r="D583"/>
+      <c r="E583"/>
+      <c r="F583"/>
+      <c r="G583"/>
+      <c r="H583"/>
+      <c r="I583"/>
     </row>
     <row r="584">
       <c r="A584" t="s">
@@ -14904,24 +14964,12 @@
       <c r="C584" t="n">
         <v>2008</v>
       </c>
-      <c r="D584" t="n">
-        <v>17.89999962</v>
-      </c>
-      <c r="E584" t="n">
-        <v>20</v>
-      </c>
-      <c r="F584" t="n">
-        <v>61.90000153</v>
-      </c>
-      <c r="G584" t="n">
-        <v>17.89999962</v>
-      </c>
-      <c r="H584" t="n">
-        <v>20</v>
-      </c>
-      <c r="I584" t="n">
-        <v>61.90000153</v>
-      </c>
+      <c r="D584"/>
+      <c r="E584"/>
+      <c r="F584"/>
+      <c r="G584"/>
+      <c r="H584"/>
+      <c r="I584"/>
     </row>
     <row r="585">
       <c r="A585" t="s">
@@ -14933,24 +14981,12 @@
       <c r="C585" t="n">
         <v>2009</v>
       </c>
-      <c r="D585" t="n">
-        <v>18.10000038</v>
-      </c>
-      <c r="E585" t="n">
-        <v>20.10000038</v>
-      </c>
-      <c r="F585" t="n">
-        <v>61.70000076</v>
-      </c>
-      <c r="G585" t="n">
-        <v>18.10000038</v>
-      </c>
-      <c r="H585" t="n">
-        <v>20.10000038</v>
-      </c>
-      <c r="I585" t="n">
-        <v>61.70000076</v>
-      </c>
+      <c r="D585"/>
+      <c r="E585"/>
+      <c r="F585"/>
+      <c r="G585"/>
+      <c r="H585"/>
+      <c r="I585"/>
     </row>
     <row r="586">
       <c r="A586" t="s">
@@ -14962,24 +14998,12 @@
       <c r="C586" t="n">
         <v>2010</v>
       </c>
-      <c r="D586" t="n">
-        <v>18.39999962</v>
-      </c>
-      <c r="E586" t="n">
-        <v>19.60000038</v>
-      </c>
-      <c r="F586" t="n">
-        <v>62</v>
-      </c>
-      <c r="G586" t="n">
-        <v>18.39999962</v>
-      </c>
-      <c r="H586" t="n">
-        <v>19.60000038</v>
-      </c>
-      <c r="I586" t="n">
-        <v>62</v>
-      </c>
+      <c r="D586"/>
+      <c r="E586"/>
+      <c r="F586"/>
+      <c r="G586"/>
+      <c r="H586"/>
+      <c r="I586"/>
     </row>
     <row r="587">
       <c r="A587" t="s">
@@ -14991,24 +15015,12 @@
       <c r="C587" t="n">
         <v>2011</v>
       </c>
-      <c r="D587" t="n">
-        <v>17.60000038</v>
-      </c>
-      <c r="E587" t="n">
-        <v>20.70000076</v>
-      </c>
-      <c r="F587" t="n">
-        <v>61.70000076</v>
-      </c>
-      <c r="G587" t="n">
-        <v>17.60000038</v>
-      </c>
-      <c r="H587" t="n">
-        <v>20.70000076</v>
-      </c>
-      <c r="I587" t="n">
-        <v>61.70000076</v>
-      </c>
+      <c r="D587"/>
+      <c r="E587"/>
+      <c r="F587"/>
+      <c r="G587"/>
+      <c r="H587"/>
+      <c r="I587"/>
     </row>
     <row r="588">
       <c r="A588" t="s">
@@ -15020,24 +15032,12 @@
       <c r="C588" t="n">
         <v>2012</v>
       </c>
-      <c r="D588" t="n">
-        <v>16.89999962</v>
-      </c>
-      <c r="E588" t="n">
-        <v>20.89999962</v>
-      </c>
-      <c r="F588" t="n">
-        <v>62.20000076</v>
-      </c>
-      <c r="G588" t="n">
-        <v>16.89999962</v>
-      </c>
-      <c r="H588" t="n">
-        <v>20.89999962</v>
-      </c>
-      <c r="I588" t="n">
-        <v>62.20000076</v>
-      </c>
+      <c r="D588"/>
+      <c r="E588"/>
+      <c r="F588"/>
+      <c r="G588"/>
+      <c r="H588"/>
+      <c r="I588"/>
     </row>
     <row r="589">
       <c r="A589" t="s">
@@ -15151,12 +15151,24 @@
       <c r="C595" t="n">
         <v>2005</v>
       </c>
-      <c r="D595"/>
-      <c r="E595"/>
-      <c r="F595"/>
-      <c r="G595"/>
-      <c r="H595"/>
-      <c r="I595"/>
+      <c r="D595" t="n">
+        <v>35.40000153</v>
+      </c>
+      <c r="E595" t="n">
+        <v>20.60000038</v>
+      </c>
+      <c r="F595" t="n">
+        <v>42.20000076</v>
+      </c>
+      <c r="G595" t="n">
+        <v>35.40000153</v>
+      </c>
+      <c r="H595" t="n">
+        <v>20.60000038</v>
+      </c>
+      <c r="I595" t="n">
+        <v>42.20000076</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
@@ -15304,12 +15316,24 @@
       <c r="C604" t="n">
         <v>2000</v>
       </c>
-      <c r="D604"/>
-      <c r="E604"/>
-      <c r="F604"/>
-      <c r="G604"/>
-      <c r="H604"/>
-      <c r="I604"/>
+      <c r="D604" t="n">
+        <v>20.39999962</v>
+      </c>
+      <c r="E604" t="n">
+        <v>22.29999924</v>
+      </c>
+      <c r="F604" t="n">
+        <v>56.70000076</v>
+      </c>
+      <c r="G604" t="n">
+        <v>20.39999962</v>
+      </c>
+      <c r="H604" t="n">
+        <v>22.29999924</v>
+      </c>
+      <c r="I604" t="n">
+        <v>56.70000076</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
@@ -15321,12 +15345,24 @@
       <c r="C605" t="n">
         <v>2001</v>
       </c>
-      <c r="D605"/>
-      <c r="E605"/>
-      <c r="F605"/>
-      <c r="G605"/>
-      <c r="H605"/>
-      <c r="I605"/>
+      <c r="D605" t="n">
+        <v>15.60000038</v>
+      </c>
+      <c r="E605" t="n">
+        <v>23.29999924</v>
+      </c>
+      <c r="F605" t="n">
+        <v>57.29999924</v>
+      </c>
+      <c r="G605" t="n">
+        <v>15.60000038</v>
+      </c>
+      <c r="H605" t="n">
+        <v>23.29999924</v>
+      </c>
+      <c r="I605" t="n">
+        <v>57.29999924</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
@@ -15338,12 +15374,24 @@
       <c r="C606" t="n">
         <v>2002</v>
       </c>
-      <c r="D606"/>
-      <c r="E606"/>
-      <c r="F606"/>
-      <c r="G606"/>
-      <c r="H606"/>
-      <c r="I606"/>
+      <c r="D606" t="n">
+        <v>15.89999962</v>
+      </c>
+      <c r="E606" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F606" t="n">
+        <v>58.20000076</v>
+      </c>
+      <c r="G606" t="n">
+        <v>15.89999962</v>
+      </c>
+      <c r="H606" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I606" t="n">
+        <v>58.20000076</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
@@ -15355,12 +15403,24 @@
       <c r="C607" t="n">
         <v>2003</v>
       </c>
-      <c r="D607"/>
-      <c r="E607"/>
-      <c r="F607"/>
-      <c r="G607"/>
-      <c r="H607"/>
-      <c r="I607"/>
+      <c r="D607" t="n">
+        <v>15.10000038</v>
+      </c>
+      <c r="E607" t="n">
+        <v>22.20000076</v>
+      </c>
+      <c r="F607" t="n">
+        <v>58.59999847</v>
+      </c>
+      <c r="G607" t="n">
+        <v>15.10000038</v>
+      </c>
+      <c r="H607" t="n">
+        <v>22.20000076</v>
+      </c>
+      <c r="I607" t="n">
+        <v>58.59999847</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
@@ -15372,12 +15432,24 @@
       <c r="C608" t="n">
         <v>2004</v>
       </c>
-      <c r="D608"/>
-      <c r="E608"/>
-      <c r="F608"/>
-      <c r="G608"/>
-      <c r="H608"/>
-      <c r="I608"/>
+      <c r="D608" t="n">
+        <v>14.80000019</v>
+      </c>
+      <c r="E608" t="n">
+        <v>22</v>
+      </c>
+      <c r="F608" t="n">
+        <v>59.40000153</v>
+      </c>
+      <c r="G608" t="n">
+        <v>14.80000019</v>
+      </c>
+      <c r="H608" t="n">
+        <v>22</v>
+      </c>
+      <c r="I608" t="n">
+        <v>59.40000153</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
@@ -15390,22 +15462,22 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>35.40000153</v>
+        <v>15.19999981</v>
       </c>
       <c r="E609" t="n">
-        <v>20.60000038</v>
+        <v>21.60000038</v>
       </c>
       <c r="F609" t="n">
-        <v>42.20000076</v>
+        <v>59.70000076</v>
       </c>
       <c r="G609" t="n">
-        <v>35.40000153</v>
+        <v>15.19999981</v>
       </c>
       <c r="H609" t="n">
-        <v>20.60000038</v>
+        <v>21.60000038</v>
       </c>
       <c r="I609" t="n">
-        <v>42.20000076</v>
+        <v>59.70000076</v>
       </c>
     </row>
     <row r="610">
@@ -15418,12 +15490,24 @@
       <c r="C610" t="n">
         <v>2006</v>
       </c>
-      <c r="D610"/>
-      <c r="E610"/>
-      <c r="F610"/>
-      <c r="G610"/>
-      <c r="H610"/>
-      <c r="I610"/>
+      <c r="D610" t="n">
+        <v>14</v>
+      </c>
+      <c r="E610" t="n">
+        <v>21.70000076</v>
+      </c>
+      <c r="F610" t="n">
+        <v>60.40000153</v>
+      </c>
+      <c r="G610" t="n">
+        <v>14</v>
+      </c>
+      <c r="H610" t="n">
+        <v>21.70000076</v>
+      </c>
+      <c r="I610" t="n">
+        <v>60.40000153</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
@@ -15435,12 +15519,24 @@
       <c r="C611" t="n">
         <v>2007</v>
       </c>
-      <c r="D611"/>
-      <c r="E611"/>
-      <c r="F611"/>
-      <c r="G611"/>
-      <c r="H611"/>
-      <c r="I611"/>
+      <c r="D611" t="n">
+        <v>13.19999981</v>
+      </c>
+      <c r="E611" t="n">
+        <v>22.20000076</v>
+      </c>
+      <c r="F611" t="n">
+        <v>60.70000076</v>
+      </c>
+      <c r="G611" t="n">
+        <v>13.19999981</v>
+      </c>
+      <c r="H611" t="n">
+        <v>22.20000076</v>
+      </c>
+      <c r="I611" t="n">
+        <v>60.70000076</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
@@ -15452,12 +15548,24 @@
       <c r="C612" t="n">
         <v>2008</v>
       </c>
-      <c r="D612"/>
-      <c r="E612"/>
-      <c r="F612"/>
-      <c r="G612"/>
-      <c r="H612"/>
-      <c r="I612"/>
+      <c r="D612" t="n">
+        <v>12.30000019</v>
+      </c>
+      <c r="E612" t="n">
+        <v>21.60000038</v>
+      </c>
+      <c r="F612" t="n">
+        <v>62.20000076</v>
+      </c>
+      <c r="G612" t="n">
+        <v>12.30000019</v>
+      </c>
+      <c r="H612" t="n">
+        <v>21.60000038</v>
+      </c>
+      <c r="I612" t="n">
+        <v>62.20000076</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
@@ -15469,12 +15577,24 @@
       <c r="C613" t="n">
         <v>2009</v>
       </c>
-      <c r="D613"/>
-      <c r="E613"/>
-      <c r="F613"/>
-      <c r="G613"/>
-      <c r="H613"/>
-      <c r="I613"/>
+      <c r="D613" t="n">
+        <v>12.30000019</v>
+      </c>
+      <c r="E613" t="n">
+        <v>21.60000038</v>
+      </c>
+      <c r="F613" t="n">
+        <v>62.20000076</v>
+      </c>
+      <c r="G613" t="n">
+        <v>12.30000019</v>
+      </c>
+      <c r="H613" t="n">
+        <v>21.60000038</v>
+      </c>
+      <c r="I613" t="n">
+        <v>62.20000076</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
@@ -15486,12 +15606,24 @@
       <c r="C614" t="n">
         <v>2010</v>
       </c>
-      <c r="D614"/>
-      <c r="E614"/>
-      <c r="F614"/>
-      <c r="G614"/>
-      <c r="H614"/>
-      <c r="I614"/>
+      <c r="D614" t="n">
+        <v>15</v>
+      </c>
+      <c r="E614" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F614" t="n">
+        <v>64.69999695</v>
+      </c>
+      <c r="G614" t="n">
+        <v>15</v>
+      </c>
+      <c r="H614" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I614" t="n">
+        <v>64.69999695</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
@@ -15503,12 +15635,24 @@
       <c r="C615" t="n">
         <v>2011</v>
       </c>
-      <c r="D615"/>
-      <c r="E615"/>
-      <c r="F615"/>
-      <c r="G615"/>
-      <c r="H615"/>
-      <c r="I615"/>
+      <c r="D615" t="n">
+        <v>14.10000038</v>
+      </c>
+      <c r="E615" t="n">
+        <v>19.79999924</v>
+      </c>
+      <c r="F615" t="n">
+        <v>65.80000305</v>
+      </c>
+      <c r="G615" t="n">
+        <v>14.10000038</v>
+      </c>
+      <c r="H615" t="n">
+        <v>19.79999924</v>
+      </c>
+      <c r="I615" t="n">
+        <v>65.80000305</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
@@ -15520,12 +15664,24 @@
       <c r="C616" t="n">
         <v>2012</v>
       </c>
-      <c r="D616"/>
-      <c r="E616"/>
-      <c r="F616"/>
-      <c r="G616"/>
-      <c r="H616"/>
-      <c r="I616"/>
+      <c r="D616" t="n">
+        <v>13.39999962</v>
+      </c>
+      <c r="E616" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="F616" t="n">
+        <v>66.90000153</v>
+      </c>
+      <c r="G616" t="n">
+        <v>13.39999962</v>
+      </c>
+      <c r="H616" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I616" t="n">
+        <v>66.90000153</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
@@ -15554,24 +15710,12 @@
       <c r="C618" t="n">
         <v>2000</v>
       </c>
-      <c r="D618" t="n">
-        <v>20.39999962</v>
-      </c>
-      <c r="E618" t="n">
-        <v>22.29999924</v>
-      </c>
-      <c r="F618" t="n">
-        <v>56.70000076</v>
-      </c>
-      <c r="G618" t="n">
-        <v>20.39999962</v>
-      </c>
-      <c r="H618" t="n">
-        <v>22.29999924</v>
-      </c>
-      <c r="I618" t="n">
-        <v>56.70000076</v>
-      </c>
+      <c r="D618"/>
+      <c r="E618"/>
+      <c r="F618"/>
+      <c r="G618"/>
+      <c r="H618"/>
+      <c r="I618"/>
     </row>
     <row r="619">
       <c r="A619" t="s">
@@ -15583,24 +15727,12 @@
       <c r="C619" t="n">
         <v>2001</v>
       </c>
-      <c r="D619" t="n">
-        <v>15.60000038</v>
-      </c>
-      <c r="E619" t="n">
-        <v>23.29999924</v>
-      </c>
-      <c r="F619" t="n">
-        <v>57.29999924</v>
-      </c>
-      <c r="G619" t="n">
-        <v>15.60000038</v>
-      </c>
-      <c r="H619" t="n">
-        <v>23.29999924</v>
-      </c>
-      <c r="I619" t="n">
-        <v>57.29999924</v>
-      </c>
+      <c r="D619"/>
+      <c r="E619"/>
+      <c r="F619"/>
+      <c r="G619"/>
+      <c r="H619"/>
+      <c r="I619"/>
     </row>
     <row r="620">
       <c r="A620" t="s">
@@ -15612,24 +15744,12 @@
       <c r="C620" t="n">
         <v>2002</v>
       </c>
-      <c r="D620" t="n">
-        <v>15.89999962</v>
-      </c>
-      <c r="E620" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="F620" t="n">
-        <v>58.20000076</v>
-      </c>
-      <c r="G620" t="n">
-        <v>15.89999962</v>
-      </c>
-      <c r="H620" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="I620" t="n">
-        <v>58.20000076</v>
-      </c>
+      <c r="D620"/>
+      <c r="E620"/>
+      <c r="F620"/>
+      <c r="G620"/>
+      <c r="H620"/>
+      <c r="I620"/>
     </row>
     <row r="621">
       <c r="A621" t="s">
@@ -15641,24 +15761,12 @@
       <c r="C621" t="n">
         <v>2003</v>
       </c>
-      <c r="D621" t="n">
-        <v>15.10000038</v>
-      </c>
-      <c r="E621" t="n">
-        <v>22.20000076</v>
-      </c>
-      <c r="F621" t="n">
-        <v>58.59999847</v>
-      </c>
-      <c r="G621" t="n">
-        <v>15.10000038</v>
-      </c>
-      <c r="H621" t="n">
-        <v>22.20000076</v>
-      </c>
-      <c r="I621" t="n">
-        <v>58.59999847</v>
-      </c>
+      <c r="D621"/>
+      <c r="E621"/>
+      <c r="F621"/>
+      <c r="G621"/>
+      <c r="H621"/>
+      <c r="I621"/>
     </row>
     <row r="622">
       <c r="A622" t="s">
@@ -15670,24 +15778,12 @@
       <c r="C622" t="n">
         <v>2004</v>
       </c>
-      <c r="D622" t="n">
-        <v>14.80000019</v>
-      </c>
-      <c r="E622" t="n">
-        <v>22</v>
-      </c>
-      <c r="F622" t="n">
-        <v>59.40000153</v>
-      </c>
-      <c r="G622" t="n">
-        <v>14.80000019</v>
-      </c>
-      <c r="H622" t="n">
-        <v>22</v>
-      </c>
-      <c r="I622" t="n">
-        <v>59.40000153</v>
-      </c>
+      <c r="D622"/>
+      <c r="E622"/>
+      <c r="F622"/>
+      <c r="G622"/>
+      <c r="H622"/>
+      <c r="I622"/>
     </row>
     <row r="623">
       <c r="A623" t="s">
@@ -15699,24 +15795,12 @@
       <c r="C623" t="n">
         <v>2005</v>
       </c>
-      <c r="D623" t="n">
-        <v>15.19999981</v>
-      </c>
-      <c r="E623" t="n">
-        <v>21.60000038</v>
-      </c>
-      <c r="F623" t="n">
-        <v>59.70000076</v>
-      </c>
-      <c r="G623" t="n">
-        <v>15.19999981</v>
-      </c>
-      <c r="H623" t="n">
-        <v>21.60000038</v>
-      </c>
-      <c r="I623" t="n">
-        <v>59.70000076</v>
-      </c>
+      <c r="D623"/>
+      <c r="E623"/>
+      <c r="F623"/>
+      <c r="G623"/>
+      <c r="H623"/>
+      <c r="I623"/>
     </row>
     <row r="624">
       <c r="A624" t="s">
@@ -15728,24 +15812,12 @@
       <c r="C624" t="n">
         <v>2006</v>
       </c>
-      <c r="D624" t="n">
-        <v>14</v>
-      </c>
-      <c r="E624" t="n">
-        <v>21.70000076</v>
-      </c>
-      <c r="F624" t="n">
-        <v>60.40000153</v>
-      </c>
-      <c r="G624" t="n">
-        <v>14</v>
-      </c>
-      <c r="H624" t="n">
-        <v>21.70000076</v>
-      </c>
-      <c r="I624" t="n">
-        <v>60.40000153</v>
-      </c>
+      <c r="D624"/>
+      <c r="E624"/>
+      <c r="F624"/>
+      <c r="G624"/>
+      <c r="H624"/>
+      <c r="I624"/>
     </row>
     <row r="625">
       <c r="A625" t="s">
@@ -15757,24 +15829,12 @@
       <c r="C625" t="n">
         <v>2007</v>
       </c>
-      <c r="D625" t="n">
-        <v>13.19999981</v>
-      </c>
-      <c r="E625" t="n">
-        <v>22.20000076</v>
-      </c>
-      <c r="F625" t="n">
-        <v>60.70000076</v>
-      </c>
-      <c r="G625" t="n">
-        <v>13.19999981</v>
-      </c>
-      <c r="H625" t="n">
-        <v>22.20000076</v>
-      </c>
-      <c r="I625" t="n">
-        <v>60.70000076</v>
-      </c>
+      <c r="D625"/>
+      <c r="E625"/>
+      <c r="F625"/>
+      <c r="G625"/>
+      <c r="H625"/>
+      <c r="I625"/>
     </row>
     <row r="626">
       <c r="A626" t="s">
@@ -15786,24 +15846,12 @@
       <c r="C626" t="n">
         <v>2008</v>
       </c>
-      <c r="D626" t="n">
-        <v>12.30000019</v>
-      </c>
-      <c r="E626" t="n">
-        <v>21.60000038</v>
-      </c>
-      <c r="F626" t="n">
-        <v>62.20000076</v>
-      </c>
-      <c r="G626" t="n">
-        <v>12.30000019</v>
-      </c>
-      <c r="H626" t="n">
-        <v>21.60000038</v>
-      </c>
-      <c r="I626" t="n">
-        <v>62.20000076</v>
-      </c>
+      <c r="D626"/>
+      <c r="E626"/>
+      <c r="F626"/>
+      <c r="G626"/>
+      <c r="H626"/>
+      <c r="I626"/>
     </row>
     <row r="627">
       <c r="A627" t="s">
@@ -15815,24 +15863,12 @@
       <c r="C627" t="n">
         <v>2009</v>
       </c>
-      <c r="D627" t="n">
-        <v>12.30000019</v>
-      </c>
-      <c r="E627" t="n">
-        <v>21.60000038</v>
-      </c>
-      <c r="F627" t="n">
-        <v>62.20000076</v>
-      </c>
-      <c r="G627" t="n">
-        <v>12.30000019</v>
-      </c>
-      <c r="H627" t="n">
-        <v>21.60000038</v>
-      </c>
-      <c r="I627" t="n">
-        <v>62.20000076</v>
-      </c>
+      <c r="D627"/>
+      <c r="E627"/>
+      <c r="F627"/>
+      <c r="G627"/>
+      <c r="H627"/>
+      <c r="I627"/>
     </row>
     <row r="628">
       <c r="A628" t="s">
@@ -15844,24 +15880,12 @@
       <c r="C628" t="n">
         <v>2010</v>
       </c>
-      <c r="D628" t="n">
-        <v>15</v>
-      </c>
-      <c r="E628" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F628" t="n">
-        <v>64.69999695</v>
-      </c>
-      <c r="G628" t="n">
-        <v>15</v>
-      </c>
-      <c r="H628" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="I628" t="n">
-        <v>64.69999695</v>
-      </c>
+      <c r="D628"/>
+      <c r="E628"/>
+      <c r="F628"/>
+      <c r="G628"/>
+      <c r="H628"/>
+      <c r="I628"/>
     </row>
     <row r="629">
       <c r="A629" t="s">
@@ -15873,24 +15897,12 @@
       <c r="C629" t="n">
         <v>2011</v>
       </c>
-      <c r="D629" t="n">
-        <v>14.10000038</v>
-      </c>
-      <c r="E629" t="n">
-        <v>19.79999924</v>
-      </c>
-      <c r="F629" t="n">
-        <v>65.80000305</v>
-      </c>
-      <c r="G629" t="n">
-        <v>14.10000038</v>
-      </c>
-      <c r="H629" t="n">
-        <v>19.79999924</v>
-      </c>
-      <c r="I629" t="n">
-        <v>65.80000305</v>
-      </c>
+      <c r="D629"/>
+      <c r="E629"/>
+      <c r="F629"/>
+      <c r="G629"/>
+      <c r="H629"/>
+      <c r="I629"/>
     </row>
     <row r="630">
       <c r="A630" t="s">
@@ -15902,24 +15914,12 @@
       <c r="C630" t="n">
         <v>2012</v>
       </c>
-      <c r="D630" t="n">
-        <v>13.39999962</v>
-      </c>
-      <c r="E630" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F630" t="n">
-        <v>66.90000153</v>
-      </c>
-      <c r="G630" t="n">
-        <v>13.39999962</v>
-      </c>
-      <c r="H630" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="I630" t="n">
-        <v>66.90000153</v>
-      </c>
+      <c r="D630"/>
+      <c r="E630"/>
+      <c r="F630"/>
+      <c r="G630"/>
+      <c r="H630"/>
+      <c r="I630"/>
     </row>
     <row r="631">
       <c r="A631" t="s">
@@ -65223,22 +65223,22 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v>23.39999962</v>
+        <v>1.5</v>
       </c>
       <c r="E2802" t="n">
-        <v>20.79999924</v>
+        <v>25.10000038</v>
       </c>
       <c r="F2802" t="n">
-        <v>13.30000019</v>
+        <v>73.09999847</v>
       </c>
       <c r="G2802" t="n">
-        <v>23.39999962</v>
+        <v>1.5</v>
       </c>
       <c r="H2802" t="n">
-        <v>20.79999924</v>
+        <v>25.10000038</v>
       </c>
       <c r="I2802" t="n">
-        <v>13.30000019</v>
+        <v>73.09999847</v>
       </c>
     </row>
     <row r="2803">
@@ -65252,22 +65252,22 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v>20.89999962</v>
+        <v>1.399999976</v>
       </c>
       <c r="E2803" t="n">
-        <v>26.29999924</v>
+        <v>24.5</v>
       </c>
       <c r="F2803" t="n">
-        <v>52.79999924</v>
+        <v>73.80000305</v>
       </c>
       <c r="G2803" t="n">
-        <v>20.89999962</v>
+        <v>1.399999976</v>
       </c>
       <c r="H2803" t="n">
-        <v>26.29999924</v>
+        <v>24.5</v>
       </c>
       <c r="I2803" t="n">
-        <v>52.79999924</v>
+        <v>73.80000305</v>
       </c>
     </row>
     <row r="2804">
@@ -65281,22 +65281,22 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>20.60000038</v>
+        <v>1.399999976</v>
       </c>
       <c r="E2804" t="n">
-        <v>25.20000076</v>
+        <v>23.70000076</v>
       </c>
       <c r="F2804" t="n">
-        <v>54.20000076</v>
+        <v>74.69999695</v>
       </c>
       <c r="G2804" t="n">
-        <v>20.60000038</v>
+        <v>1.399999976</v>
       </c>
       <c r="H2804" t="n">
-        <v>25.20000076</v>
+        <v>23.70000076</v>
       </c>
       <c r="I2804" t="n">
-        <v>54.20000076</v>
+        <v>74.69999695</v>
       </c>
     </row>
     <row r="2805">
@@ -65310,22 +65310,22 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>20.39999962</v>
+        <v>1.299999952</v>
       </c>
       <c r="E2805" t="n">
-        <v>24.60000038</v>
+        <v>23.20000076</v>
       </c>
       <c r="F2805" t="n">
-        <v>55.09999847</v>
+        <v>75.40000153</v>
       </c>
       <c r="G2805" t="n">
-        <v>20.39999962</v>
+        <v>1.299999952</v>
       </c>
       <c r="H2805" t="n">
-        <v>24.60000038</v>
+        <v>23.20000076</v>
       </c>
       <c r="I2805" t="n">
-        <v>55.09999847</v>
+        <v>75.40000153</v>
       </c>
     </row>
     <row r="2806">
@@ -65339,22 +65339,22 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>19.70000076</v>
+        <v>1.299999952</v>
       </c>
       <c r="E2806" t="n">
-        <v>24.60000038</v>
+        <v>22.20000076</v>
       </c>
       <c r="F2806" t="n">
-        <v>55.70000076</v>
+        <v>76.30000305</v>
       </c>
       <c r="G2806" t="n">
-        <v>19.70000076</v>
+        <v>1.299999952</v>
       </c>
       <c r="H2806" t="n">
-        <v>24.60000038</v>
+        <v>22.20000076</v>
       </c>
       <c r="I2806" t="n">
-        <v>55.70000076</v>
+        <v>76.30000305</v>
       </c>
     </row>
     <row r="2807">
@@ -65368,22 +65368,22 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>19.39999962</v>
+        <v>1.299999952</v>
       </c>
       <c r="E2807" t="n">
-        <v>24.20000076</v>
+        <v>22.20000076</v>
       </c>
       <c r="F2807" t="n">
-        <v>56.40000153</v>
+        <v>76.30000305</v>
       </c>
       <c r="G2807" t="n">
-        <v>19.39999962</v>
+        <v>1.299999952</v>
       </c>
       <c r="H2807" t="n">
-        <v>24.20000076</v>
+        <v>22.20000076</v>
       </c>
       <c r="I2807" t="n">
-        <v>56.40000153</v>
+        <v>76.30000305</v>
       </c>
     </row>
     <row r="2808">
@@ -65397,22 +65397,22 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>17.60000038</v>
+        <v>1.299999952</v>
       </c>
       <c r="E2808" t="n">
-        <v>24.20000076</v>
+        <v>22</v>
       </c>
       <c r="F2808" t="n">
-        <v>58.20000076</v>
+        <v>76.40000153</v>
       </c>
       <c r="G2808" t="n">
-        <v>17.60000038</v>
+        <v>1.299999952</v>
       </c>
       <c r="H2808" t="n">
-        <v>24.20000076</v>
+        <v>22</v>
       </c>
       <c r="I2808" t="n">
-        <v>58.20000076</v>
+        <v>76.40000153</v>
       </c>
     </row>
     <row r="2809">
@@ -65426,22 +65426,22 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>16.70000076</v>
+        <v>1.399999976</v>
       </c>
       <c r="E2809" t="n">
-        <v>23.89999962</v>
+        <v>22.29999924</v>
       </c>
       <c r="F2809" t="n">
-        <v>59.40000153</v>
+        <v>76</v>
       </c>
       <c r="G2809" t="n">
-        <v>16.70000076</v>
+        <v>1.399999976</v>
       </c>
       <c r="H2809" t="n">
-        <v>23.89999962</v>
+        <v>22.29999924</v>
       </c>
       <c r="I2809" t="n">
-        <v>59.40000153</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2810">
@@ -65455,22 +65455,22 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>15.80000019</v>
+        <v>1.100000024</v>
       </c>
       <c r="E2810" t="n">
-        <v>23.39999962</v>
+        <v>21.89999962</v>
       </c>
       <c r="F2810" t="n">
-        <v>60.70000076</v>
+        <v>76.59999847</v>
       </c>
       <c r="G2810" t="n">
-        <v>15.80000019</v>
+        <v>1.100000024</v>
       </c>
       <c r="H2810" t="n">
-        <v>23.39999962</v>
+        <v>21.89999962</v>
       </c>
       <c r="I2810" t="n">
-        <v>60.70000076</v>
+        <v>76.59999847</v>
       </c>
     </row>
     <row r="2811">
@@ -65484,22 +65484,22 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>15.60000038</v>
+        <v>1.100000024</v>
       </c>
       <c r="E2811" t="n">
-        <v>22.39999962</v>
+        <v>19.5</v>
       </c>
       <c r="F2811" t="n">
-        <v>62</v>
+        <v>78.69999695</v>
       </c>
       <c r="G2811" t="n">
-        <v>15.60000038</v>
+        <v>1.100000024</v>
       </c>
       <c r="H2811" t="n">
-        <v>22.39999962</v>
+        <v>19.5</v>
       </c>
       <c r="I2811" t="n">
-        <v>62</v>
+        <v>78.69999695</v>
       </c>
     </row>
     <row r="2812">
@@ -65512,17 +65512,23 @@
       <c r="C2812" t="n">
         <v>2010</v>
       </c>
-      <c r="D2812"/>
-      <c r="E2812"/>
-      <c r="F2812"/>
+      <c r="D2812" t="n">
+        <v>1.200000048</v>
+      </c>
+      <c r="E2812" t="n">
+        <v>19.10000038</v>
+      </c>
+      <c r="F2812" t="n">
+        <v>78.90000153</v>
+      </c>
       <c r="G2812" t="n">
-        <v>16.19999981</v>
+        <v>1.200000048</v>
       </c>
       <c r="H2812" t="n">
-        <v>21.69999981</v>
+        <v>19.10000038</v>
       </c>
       <c r="I2812" t="n">
-        <v>62.10000038</v>
+        <v>78.90000153</v>
       </c>
     </row>
     <row r="2813">
@@ -65536,22 +65542,22 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>16.79999924</v>
+        <v>1.200000048</v>
       </c>
       <c r="E2813" t="n">
-        <v>21</v>
+        <v>19.10000038</v>
       </c>
       <c r="F2813" t="n">
-        <v>62.20000076</v>
+        <v>79</v>
       </c>
       <c r="G2813" t="n">
-        <v>16.79999924</v>
+        <v>1.200000048</v>
       </c>
       <c r="H2813" t="n">
-        <v>21</v>
+        <v>19.10000038</v>
       </c>
       <c r="I2813" t="n">
-        <v>62.20000076</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2814">
@@ -65565,22 +65571,22 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>17.20000076</v>
+        <v>1.200000048</v>
       </c>
       <c r="E2814" t="n">
-        <v>20.70000076</v>
+        <v>18.89999962</v>
       </c>
       <c r="F2814" t="n">
-        <v>62.09999847</v>
+        <v>78.90000153</v>
       </c>
       <c r="G2814" t="n">
-        <v>17.20000076</v>
+        <v>1.200000048</v>
       </c>
       <c r="H2814" t="n">
-        <v>20.70000076</v>
+        <v>18.89999962</v>
       </c>
       <c r="I2814" t="n">
-        <v>62.09999847</v>
+        <v>78.90000153</v>
       </c>
     </row>
     <row r="2815">
@@ -65611,22 +65617,22 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v>1.5</v>
+        <v>23.39999962</v>
       </c>
       <c r="E2816" t="n">
-        <v>25.10000038</v>
+        <v>20.79999924</v>
       </c>
       <c r="F2816" t="n">
-        <v>73.09999847</v>
+        <v>13.30000019</v>
       </c>
       <c r="G2816" t="n">
-        <v>1.5</v>
+        <v>23.39999962</v>
       </c>
       <c r="H2816" t="n">
-        <v>25.10000038</v>
+        <v>20.79999924</v>
       </c>
       <c r="I2816" t="n">
-        <v>73.09999847</v>
+        <v>13.30000019</v>
       </c>
     </row>
     <row r="2817">
@@ -65640,22 +65646,22 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v>1.399999976</v>
+        <v>20.89999962</v>
       </c>
       <c r="E2817" t="n">
-        <v>24.5</v>
+        <v>26.29999924</v>
       </c>
       <c r="F2817" t="n">
-        <v>73.80000305</v>
+        <v>52.79999924</v>
       </c>
       <c r="G2817" t="n">
-        <v>1.399999976</v>
+        <v>20.89999962</v>
       </c>
       <c r="H2817" t="n">
-        <v>24.5</v>
+        <v>26.29999924</v>
       </c>
       <c r="I2817" t="n">
-        <v>73.80000305</v>
+        <v>52.79999924</v>
       </c>
     </row>
     <row r="2818">
@@ -65669,22 +65675,22 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v>1.399999976</v>
+        <v>20.60000038</v>
       </c>
       <c r="E2818" t="n">
-        <v>23.70000076</v>
+        <v>25.20000076</v>
       </c>
       <c r="F2818" t="n">
-        <v>74.69999695</v>
+        <v>54.20000076</v>
       </c>
       <c r="G2818" t="n">
-        <v>1.399999976</v>
+        <v>20.60000038</v>
       </c>
       <c r="H2818" t="n">
-        <v>23.70000076</v>
+        <v>25.20000076</v>
       </c>
       <c r="I2818" t="n">
-        <v>74.69999695</v>
+        <v>54.20000076</v>
       </c>
     </row>
     <row r="2819">
@@ -65698,22 +65704,22 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v>1.299999952</v>
+        <v>20.39999962</v>
       </c>
       <c r="E2819" t="n">
-        <v>23.20000076</v>
+        <v>24.60000038</v>
       </c>
       <c r="F2819" t="n">
-        <v>75.40000153</v>
+        <v>55.09999847</v>
       </c>
       <c r="G2819" t="n">
-        <v>1.299999952</v>
+        <v>20.39999962</v>
       </c>
       <c r="H2819" t="n">
-        <v>23.20000076</v>
+        <v>24.60000038</v>
       </c>
       <c r="I2819" t="n">
-        <v>75.40000153</v>
+        <v>55.09999847</v>
       </c>
     </row>
     <row r="2820">
@@ -65727,22 +65733,22 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>1.299999952</v>
+        <v>19.70000076</v>
       </c>
       <c r="E2820" t="n">
-        <v>22.20000076</v>
+        <v>24.60000038</v>
       </c>
       <c r="F2820" t="n">
-        <v>76.30000305</v>
+        <v>55.70000076</v>
       </c>
       <c r="G2820" t="n">
-        <v>1.299999952</v>
+        <v>19.70000076</v>
       </c>
       <c r="H2820" t="n">
-        <v>22.20000076</v>
+        <v>24.60000038</v>
       </c>
       <c r="I2820" t="n">
-        <v>76.30000305</v>
+        <v>55.70000076</v>
       </c>
     </row>
     <row r="2821">
@@ -65756,22 +65762,22 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>1.299999952</v>
+        <v>19.39999962</v>
       </c>
       <c r="E2821" t="n">
-        <v>22.20000076</v>
+        <v>24.20000076</v>
       </c>
       <c r="F2821" t="n">
-        <v>76.30000305</v>
+        <v>56.40000153</v>
       </c>
       <c r="G2821" t="n">
-        <v>1.299999952</v>
+        <v>19.39999962</v>
       </c>
       <c r="H2821" t="n">
-        <v>22.20000076</v>
+        <v>24.20000076</v>
       </c>
       <c r="I2821" t="n">
-        <v>76.30000305</v>
+        <v>56.40000153</v>
       </c>
     </row>
     <row r="2822">
@@ -65785,22 +65791,22 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>1.299999952</v>
+        <v>17.60000038</v>
       </c>
       <c r="E2822" t="n">
-        <v>22</v>
+        <v>24.20000076</v>
       </c>
       <c r="F2822" t="n">
-        <v>76.40000153</v>
+        <v>58.20000076</v>
       </c>
       <c r="G2822" t="n">
-        <v>1.299999952</v>
+        <v>17.60000038</v>
       </c>
       <c r="H2822" t="n">
-        <v>22</v>
+        <v>24.20000076</v>
       </c>
       <c r="I2822" t="n">
-        <v>76.40000153</v>
+        <v>58.20000076</v>
       </c>
     </row>
     <row r="2823">
@@ -65814,22 +65820,22 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>1.399999976</v>
+        <v>16.70000076</v>
       </c>
       <c r="E2823" t="n">
-        <v>22.29999924</v>
+        <v>23.89999962</v>
       </c>
       <c r="F2823" t="n">
-        <v>76</v>
+        <v>59.40000153</v>
       </c>
       <c r="G2823" t="n">
-        <v>1.399999976</v>
+        <v>16.70000076</v>
       </c>
       <c r="H2823" t="n">
-        <v>22.29999924</v>
+        <v>23.89999962</v>
       </c>
       <c r="I2823" t="n">
-        <v>76</v>
+        <v>59.40000153</v>
       </c>
     </row>
     <row r="2824">
@@ -65843,22 +65849,22 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>1.100000024</v>
+        <v>15.80000019</v>
       </c>
       <c r="E2824" t="n">
-        <v>21.89999962</v>
+        <v>23.39999962</v>
       </c>
       <c r="F2824" t="n">
-        <v>76.59999847</v>
+        <v>60.70000076</v>
       </c>
       <c r="G2824" t="n">
-        <v>1.100000024</v>
+        <v>15.80000019</v>
       </c>
       <c r="H2824" t="n">
-        <v>21.89999962</v>
+        <v>23.39999962</v>
       </c>
       <c r="I2824" t="n">
-        <v>76.59999847</v>
+        <v>60.70000076</v>
       </c>
     </row>
     <row r="2825">
@@ -65872,22 +65878,22 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>1.100000024</v>
+        <v>15.60000038</v>
       </c>
       <c r="E2825" t="n">
-        <v>19.5</v>
+        <v>22.39999962</v>
       </c>
       <c r="F2825" t="n">
-        <v>78.69999695</v>
+        <v>62</v>
       </c>
       <c r="G2825" t="n">
-        <v>1.100000024</v>
+        <v>15.60000038</v>
       </c>
       <c r="H2825" t="n">
-        <v>19.5</v>
+        <v>22.39999962</v>
       </c>
       <c r="I2825" t="n">
-        <v>78.69999695</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2826">
@@ -65900,23 +65906,17 @@
       <c r="C2826" t="n">
         <v>2010</v>
       </c>
-      <c r="D2826" t="n">
-        <v>1.200000048</v>
-      </c>
-      <c r="E2826" t="n">
-        <v>19.10000038</v>
-      </c>
-      <c r="F2826" t="n">
-        <v>78.90000153</v>
-      </c>
+      <c r="D2826"/>
+      <c r="E2826"/>
+      <c r="F2826"/>
       <c r="G2826" t="n">
-        <v>1.200000048</v>
+        <v>16.19999981</v>
       </c>
       <c r="H2826" t="n">
-        <v>19.10000038</v>
+        <v>21.69999981</v>
       </c>
       <c r="I2826" t="n">
-        <v>78.90000153</v>
+        <v>62.10000038</v>
       </c>
     </row>
     <row r="2827">
@@ -65930,22 +65930,22 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v>1.200000048</v>
+        <v>16.79999924</v>
       </c>
       <c r="E2827" t="n">
-        <v>19.10000038</v>
+        <v>21</v>
       </c>
       <c r="F2827" t="n">
-        <v>79</v>
+        <v>62.20000076</v>
       </c>
       <c r="G2827" t="n">
-        <v>1.200000048</v>
+        <v>16.79999924</v>
       </c>
       <c r="H2827" t="n">
-        <v>19.10000038</v>
+        <v>21</v>
       </c>
       <c r="I2827" t="n">
-        <v>79</v>
+        <v>62.20000076</v>
       </c>
     </row>
     <row r="2828">
@@ -65959,22 +65959,22 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v>1.200000048</v>
+        <v>17.20000076</v>
       </c>
       <c r="E2828" t="n">
-        <v>18.89999962</v>
+        <v>20.70000076</v>
       </c>
       <c r="F2828" t="n">
-        <v>78.90000153</v>
+        <v>62.09999847</v>
       </c>
       <c r="G2828" t="n">
-        <v>1.200000048</v>
+        <v>17.20000076</v>
       </c>
       <c r="H2828" t="n">
-        <v>18.89999962</v>
+        <v>20.70000076</v>
       </c>
       <c r="I2828" t="n">
-        <v>78.90000153</v>
+        <v>62.09999847</v>
       </c>
     </row>
     <row r="2829">
